--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -1,188 +1,191 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon2-400\Desktop\QTGameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F135A40-6F37-4C4E-AA04-DA5CA2F2BA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67CFAB28-FB1A-4B95-90E6-F44E52526DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkRad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkCentralAngle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkCooldown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkAfterDelay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ThrowCooldown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ThrowAfterDelay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ThrowSpd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeMaxBounceCount1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeMaxBounceCount2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeMaxBounceCount3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeMaxBounceCount4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargingMaxTimes1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargingMaxTimes2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargingMaxTimes3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThrowBounceCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwingCooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwingAfterDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwingRad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwingCentralAngle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeShootSpd1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeShootSpd2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeShootSpd3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeShootSpd4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeTimes1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeTimes2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeTimes3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeBounceCounts1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeBounceCounts2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeBounceCounts3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeBounceCounts4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ChargeAtkPierce</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RigidDmg1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RigidDmg2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RigidDmg3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RigidDmg4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkShootSpd1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkShootSpd2</t>
-  </si>
-  <si>
-    <t>AtkShootSpd3</t>
-  </si>
-  <si>
-    <t>AtkShootSpd4</t>
-  </si>
-  <si>
-    <t>SwingProjectileDmg1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwingProjectileDmg2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwingProjectileDmg3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwingProjectileDmg4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DmgPer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeRigidDmg1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeRigidDmg2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeRigidDmg3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeRigidDmg4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeProjectileDmg1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeProjectileDmg2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeProjectileDmg3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeProjectileDmg4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkDmgPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>휘두르기/던지기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -226,12 +229,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -239,6 +236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,20 +272,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -301,7 +301,31 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -386,11 +410,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{55186686-C5F9-42E2-8FB2-B77B7DC5ED71}">
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -405,39 +429,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표6_8" displayName="표6_8" ref="A2:AD3" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:AD3"/>
-  <tableColumns count="30">
-    <tableColumn id="1" name="Index"/>
-    <tableColumn id="20" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" name="AtkRad"/>
-    <tableColumn id="3" name="AtkCentralAngle"/>
-    <tableColumn id="4" name="AtkCooldown"/>
-    <tableColumn id="5" name="AtkAfterDelay"/>
-    <tableColumn id="6" name="ThrowCooldown"/>
-    <tableColumn id="7" name="ThrowAfterDelay"/>
-    <tableColumn id="30" name="ThrowSpd"/>
-    <tableColumn id="22" name="ChargeMaxBounceCount1"/>
-    <tableColumn id="23" name="ChargeMaxBounceCount2"/>
-    <tableColumn id="24" name="ChargeMaxBounceCount3"/>
-    <tableColumn id="25" name="ChargeMaxBounceCount4"/>
-    <tableColumn id="8" name="ChargingMaxTimes1"/>
-    <tableColumn id="9" name="ChargingMaxTimes2"/>
-    <tableColumn id="10" name="ChargingMaxTimes3"/>
-    <tableColumn id="11" name="ChargeAtkPierce"/>
-    <tableColumn id="12" name="RigidDmg1"/>
-    <tableColumn id="13" name="RigidDmg2"/>
-    <tableColumn id="14" name="RigidDmg3"/>
-    <tableColumn id="15" name="RigidDmg4"/>
-    <tableColumn id="16" name="AtkShootSpd1"/>
-    <tableColumn id="17" name="AtkShootSpd2"/>
-    <tableColumn id="18" name="AtkShootSpd3"/>
-    <tableColumn id="21" name="AtkShootSpd4"/>
-    <tableColumn id="26" name="SwingProjectileDmg1"/>
-    <tableColumn id="27" name="SwingProjectileDmg2"/>
-    <tableColumn id="28" name="SwingProjectileDmg3"/>
-    <tableColumn id="29" name="SwingProjectileDmg4"/>
-    <tableColumn id="19" name="DmgPer"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0E6739C-1AC5-48F8-8088-089A4D6024AB}" name="표6_8" displayName="표6_8" ref="A2:AE3" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:AE3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="31">
+    <tableColumn id="1" xr3:uid="{D64F53F4-4B1D-4914-B42B-BB952C2B8CD3}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{47993102-D0A4-4E67-8FB5-023C2A7DCE35}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{2F1ABCD3-85A5-4A50-B8A1-A8FE89B099E0}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{05A6D3AE-3FFE-4472-AF01-4B6F538E89D8}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{CD24C293-DCDE-422A-A541-EDA444E16E46}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{DD4B4116-96A3-45B8-84EF-39153080BCA6}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{BD18833D-E962-4711-AD31-4D9C84F0C2B3}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{DEE1EFCE-FED6-4B79-B2DF-9BDD5C378C64}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{C4F0BE2A-DA9F-4E80-B999-98B8DDDB8D44}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{38D820AB-5AE5-43E8-9F3D-D7949CD94C55}" name="SwingCentralAngle"/>
+    <tableColumn id="16" xr3:uid="{4DF22EB9-EB4F-4CAA-AB36-423F25B039A4}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{CFDDF8D2-7B9E-4A7D-B6F6-81B7C62B0AD6}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{AB0E9D43-DB2C-482F-BF25-7C40AF36E5EA}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{8E7481CD-547C-4AE0-B17A-BBDE761FF0DB}" name="ChargeShootSpd4"/>
+    <tableColumn id="8" xr3:uid="{F6F89352-293D-446B-9961-28731D0CB67A}" name="ChargeTimes1"/>
+    <tableColumn id="9" xr3:uid="{9E320ABC-8AA4-4F87-8637-36CF52CD8BB6}" name="ChargeTimes2"/>
+    <tableColumn id="10" xr3:uid="{48D82D40-08E1-429B-B390-5CE528F37EC2}" name="ChargeTimes3"/>
+    <tableColumn id="22" xr3:uid="{FCB7E98A-A251-46E0-90B0-CC378E63EBC7}" name="ChargeBounceCounts1"/>
+    <tableColumn id="23" xr3:uid="{0FD6FE8B-682E-4D9B-91D3-A747152D2E7C}" name="ChargeBounceCounts2"/>
+    <tableColumn id="24" xr3:uid="{F12A3000-9E8F-42E7-B33B-68A1F12A87D7}" name="ChargeBounceCounts3"/>
+    <tableColumn id="25" xr3:uid="{22B739E3-A198-4BE5-93A1-1BD1725E0700}" name="ChargeBounceCounts4"/>
+    <tableColumn id="11" xr3:uid="{65F076FB-08C5-4D85-B9AC-4CF36F91F25B}" name="ChargeAtkPierce"/>
+    <tableColumn id="12" xr3:uid="{3C5FE18B-8A1A-43BD-9EF8-1232BADF9366}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{2CCD7EA6-9B52-4568-9213-C7F3C17736FC}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{33506150-01A4-4807-89AB-B36ACE550710}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{2BEA2E6D-1D4B-461C-8829-54E8E13D3253}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{31DE86FF-25F4-459A-A5D5-F31F0BBA3675}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{DC14467F-473B-49F5-9CFB-301F49372E87}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{E879F248-7AE3-432E-9C7F-4E2CA0FB4269}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{DA410CFC-EB94-4BC9-837C-9460352AE209}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{9F76B106-6CD5-4485-BB0E-79AD95FE163B}" name="AtkDmgPer"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -460,7 +485,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -472,7 +497,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -519,6 +544,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -554,6 +596,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -705,37 +764,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636E0E3D-8B9B-4AA3-93C5-E52CC99DA649}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -746,49 +806,49 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S1" t="s">
         <v>0</v>
@@ -800,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="V1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W1" t="s">
         <v>0</v>
       </c>
       <c r="X1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y1" t="s">
         <v>0</v>
@@ -824,195 +884,204 @@
         <v>0</v>
       </c>
       <c r="AD1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="R2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="S2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="X2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Y2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Z2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AA2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AB2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AC2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AD2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="7" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>200</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>35</v>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="J3">
         <v>120</v>
       </c>
-      <c r="E3">
-        <v>575</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>70</v>
+      </c>
+      <c r="N3">
+        <v>90</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1.5</v>
+      </c>
+      <c r="R3">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>0.3</v>
-      </c>
-      <c r="I3">
-        <v>150</v>
-      </c>
-      <c r="J3">
+      <c r="S3">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
+      <c r="T3">
         <v>4</v>
       </c>
-      <c r="M3">
+      <c r="U3">
         <v>5</v>
       </c>
-      <c r="N3">
-        <v>0.5</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1.5</v>
-      </c>
-      <c r="Q3">
+      <c r="V3">
         <v>14</v>
       </c>
-      <c r="R3">
+      <c r="W3">
         <v>10</v>
       </c>
-      <c r="S3">
+      <c r="X3">
         <v>15</v>
       </c>
-      <c r="T3">
+      <c r="Y3">
         <v>20</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>30</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
+        <v>10</v>
+      </c>
+      <c r="AB3">
+        <v>15</v>
+      </c>
+      <c r="AC3">
+        <v>20</v>
+      </c>
+      <c r="AD3">
         <v>30</v>
       </c>
-      <c r="W3">
-        <v>50</v>
-      </c>
-      <c r="X3">
-        <v>70</v>
-      </c>
-      <c r="Y3">
-        <v>90</v>
-      </c>
-      <c r="Z3">
-        <v>10</v>
-      </c>
-      <c r="AA3">
-        <v>15</v>
-      </c>
-      <c r="AB3">
-        <v>20</v>
-      </c>
-      <c r="AC3">
-        <v>30</v>
-      </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F135A40-6F37-4C4E-AA04-DA5CA2F2BA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B370CB63-27C8-4910-BC6C-7E48B53D3F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67CFAB28-FB1A-4B95-90E6-F44E52526DBA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CC1A4B0-43C8-4306-9DC6-8E7AFBA6BF27}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -90,6 +90,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ChargeTimes1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeTimes2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeTimes3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeAtkPierce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ChargeShootSpd1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,35 +122,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChargeTimes1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeTimes2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeTimes3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeBounceCounts1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeBounceCounts2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeBounceCounts3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeBounceCounts4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeAtkPierce</t>
+    <t>ChargeBounceCount1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeBounceCount2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeBounceCount3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeBounceCount4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -410,7 +410,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{55186686-C5F9-42E2-8FB2-B77B7DC5ED71}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{5C4BB9D0-593A-4F09-BEA4-AE193836360E}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -429,40 +429,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0E6739C-1AC5-48F8-8088-089A4D6024AB}" name="표6_8" displayName="표6_8" ref="A2:AE3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BF0C50B-8F7A-4161-B165-E7FF3B014364}" name="표6_8" displayName="표6_8" ref="A2:AE3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A2:AE3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{D64F53F4-4B1D-4914-B42B-BB952C2B8CD3}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{47993102-D0A4-4E67-8FB5-023C2A7DCE35}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{2F1ABCD3-85A5-4A50-B8A1-A8FE89B099E0}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{05A6D3AE-3FFE-4472-AF01-4B6F538E89D8}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{CD24C293-DCDE-422A-A541-EDA444E16E46}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{DD4B4116-96A3-45B8-84EF-39153080BCA6}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{BD18833D-E962-4711-AD31-4D9C84F0C2B3}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{DEE1EFCE-FED6-4B79-B2DF-9BDD5C378C64}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{C4F0BE2A-DA9F-4E80-B999-98B8DDDB8D44}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{38D820AB-5AE5-43E8-9F3D-D7949CD94C55}" name="SwingCentralAngle"/>
-    <tableColumn id="16" xr3:uid="{4DF22EB9-EB4F-4CAA-AB36-423F25B039A4}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{CFDDF8D2-7B9E-4A7D-B6F6-81B7C62B0AD6}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{AB0E9D43-DB2C-482F-BF25-7C40AF36E5EA}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{8E7481CD-547C-4AE0-B17A-BBDE761FF0DB}" name="ChargeShootSpd4"/>
-    <tableColumn id="8" xr3:uid="{F6F89352-293D-446B-9961-28731D0CB67A}" name="ChargeTimes1"/>
-    <tableColumn id="9" xr3:uid="{9E320ABC-8AA4-4F87-8637-36CF52CD8BB6}" name="ChargeTimes2"/>
-    <tableColumn id="10" xr3:uid="{48D82D40-08E1-429B-B390-5CE528F37EC2}" name="ChargeTimes3"/>
-    <tableColumn id="22" xr3:uid="{FCB7E98A-A251-46E0-90B0-CC378E63EBC7}" name="ChargeBounceCounts1"/>
-    <tableColumn id="23" xr3:uid="{0FD6FE8B-682E-4D9B-91D3-A747152D2E7C}" name="ChargeBounceCounts2"/>
-    <tableColumn id="24" xr3:uid="{F12A3000-9E8F-42E7-B33B-68A1F12A87D7}" name="ChargeBounceCounts3"/>
-    <tableColumn id="25" xr3:uid="{22B739E3-A198-4BE5-93A1-1BD1725E0700}" name="ChargeBounceCounts4"/>
-    <tableColumn id="11" xr3:uid="{65F076FB-08C5-4D85-B9AC-4CF36F91F25B}" name="ChargeAtkPierce"/>
-    <tableColumn id="12" xr3:uid="{3C5FE18B-8A1A-43BD-9EF8-1232BADF9366}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{2CCD7EA6-9B52-4568-9213-C7F3C17736FC}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{33506150-01A4-4807-89AB-B36ACE550710}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{2BEA2E6D-1D4B-461C-8829-54E8E13D3253}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{31DE86FF-25F4-459A-A5D5-F31F0BBA3675}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{DC14467F-473B-49F5-9CFB-301F49372E87}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{E879F248-7AE3-432E-9C7F-4E2CA0FB4269}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{DA410CFC-EB94-4BC9-837C-9460352AE209}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{9F76B106-6CD5-4485-BB0E-79AD95FE163B}" name="AtkDmgPer"/>
+    <tableColumn id="1" xr3:uid="{95FF81D6-2874-4C6B-B42E-2F3C2862D345}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{0A1A7D58-6175-4C52-A739-6B50875D26C4}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{BB914355-F0EB-4DCB-8549-5358843C3D05}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{6B8021D8-5A92-47E9-A8DA-2DF63DB66BFC}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{98A89FF7-99B4-4BEA-A1D3-67944B53F753}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{DF280850-2E20-4CA0-B4D5-2676BD5F9F64}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{43700F56-548A-4DA6-BB3A-CE2DB5DFC27F}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{ECC3636D-9672-40BB-9A7B-5F5AFAF807AB}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{D0A78623-DAF8-4B29-8382-DF02D73302CF}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{55AA7E70-1582-4159-8BB6-8A78B7AB1128}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{054EED3E-0B44-4F35-BF83-647BC1474B3D}" name="ChargeTimes1"/>
+    <tableColumn id="9" xr3:uid="{28A57129-D665-4D85-A564-666A9E06588C}" name="ChargeTimes2"/>
+    <tableColumn id="10" xr3:uid="{4BDEBB20-A9C4-42B7-8120-CE5B335D45FF}" name="ChargeTimes3"/>
+    <tableColumn id="11" xr3:uid="{7BA47C36-083E-4F8E-BE68-BA6A6396E5C0}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{74C21B4A-D5CF-4403-9E47-E9AC12AD8F9F}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{0C11CFD2-3B17-43B0-8D41-603854853BBB}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{B37490E7-7576-4F47-9763-BD5D16F48710}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{6F8BEAD0-8BED-4ED4-B64D-F501DDE32049}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{249D07E2-9BFD-41E3-BC8C-E8C8B9E2AC6E}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{B03AB739-62BE-4709-959C-A1B83D032DDF}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{1152ABFE-9EDA-41EC-9E1F-814B84B9B39E}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{09278850-799A-49E2-954D-2BC01A2F5693}" name="ChargeBounceCount4"/>
+    <tableColumn id="12" xr3:uid="{2E6D7C6D-1864-44FD-92C2-20D946292125}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{A708F66B-3FB9-42F2-8AF8-3DFAE6E23F6F}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{1668C6C1-3E02-4728-8CB9-0D98588B134A}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{187EEAD6-8570-4672-BEDB-21759E471FBB}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{96D97C51-D1CE-4D78-9C23-63EE1DB8D9A9}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{72B4D020-F3B5-4974-8887-79DF576B2300}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{D1BD19B0-C211-4233-9303-5F4E021FC679}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{ADB2BC46-A842-427D-BE34-66BE045A9481}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{38B13896-EADB-4A05-87AD-31FF31AF71C4}" name="AtkDmgPer"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -764,14 +764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636E0E3D-8B9B-4AA3-93C5-E52CC99DA649}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7423A0-9AD5-464E-A745-6E59C9EE18EF}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -786,12 +786,12 @@
     <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="24.75" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
@@ -1017,40 +1017,40 @@
         <v>120</v>
       </c>
       <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.5</v>
+      </c>
+      <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="O3">
         <v>30</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <v>50</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <v>70</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <v>90</v>
-      </c>
-      <c r="O3">
-        <v>0.5</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1.5</v>
-      </c>
-      <c r="R3">
-        <v>3</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
       <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
         <v>4</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>5</v>
-      </c>
-      <c r="V3">
-        <v>14</v>
       </c>
       <c r="W3">
         <v>10</v>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B370CB63-27C8-4910-BC6C-7E48B53D3F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7AC44B0-28B3-424A-98C5-2B2A7E7EA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CC1A4B0-43C8-4306-9DC6-8E7AFBA6BF27}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6041727A-A1A5-4046-A4C7-A79519EACE97}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{5C4BB9D0-593A-4F09-BEA4-AE193836360E}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8C46E6E4-107C-4810-AF0F-2FFA5D79DE72}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -429,40 +429,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BF0C50B-8F7A-4161-B165-E7FF3B014364}" name="표6_8" displayName="표6_8" ref="A2:AE3" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A2:AE3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{288479ED-0186-49DB-AA63-21B0C7266FEA}" name="표6_8" displayName="표6_8" ref="B2:AF3" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B2:AF3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{95FF81D6-2874-4C6B-B42E-2F3C2862D345}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{0A1A7D58-6175-4C52-A739-6B50875D26C4}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{BB914355-F0EB-4DCB-8549-5358843C3D05}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{6B8021D8-5A92-47E9-A8DA-2DF63DB66BFC}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{98A89FF7-99B4-4BEA-A1D3-67944B53F753}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{DF280850-2E20-4CA0-B4D5-2676BD5F9F64}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{43700F56-548A-4DA6-BB3A-CE2DB5DFC27F}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{ECC3636D-9672-40BB-9A7B-5F5AFAF807AB}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{D0A78623-DAF8-4B29-8382-DF02D73302CF}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{55AA7E70-1582-4159-8BB6-8A78B7AB1128}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{054EED3E-0B44-4F35-BF83-647BC1474B3D}" name="ChargeTimes1"/>
-    <tableColumn id="9" xr3:uid="{28A57129-D665-4D85-A564-666A9E06588C}" name="ChargeTimes2"/>
-    <tableColumn id="10" xr3:uid="{4BDEBB20-A9C4-42B7-8120-CE5B335D45FF}" name="ChargeTimes3"/>
-    <tableColumn id="11" xr3:uid="{7BA47C36-083E-4F8E-BE68-BA6A6396E5C0}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{74C21B4A-D5CF-4403-9E47-E9AC12AD8F9F}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{0C11CFD2-3B17-43B0-8D41-603854853BBB}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{B37490E7-7576-4F47-9763-BD5D16F48710}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{6F8BEAD0-8BED-4ED4-B64D-F501DDE32049}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{249D07E2-9BFD-41E3-BC8C-E8C8B9E2AC6E}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{B03AB739-62BE-4709-959C-A1B83D032DDF}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{1152ABFE-9EDA-41EC-9E1F-814B84B9B39E}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{09278850-799A-49E2-954D-2BC01A2F5693}" name="ChargeBounceCount4"/>
-    <tableColumn id="12" xr3:uid="{2E6D7C6D-1864-44FD-92C2-20D946292125}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{A708F66B-3FB9-42F2-8AF8-3DFAE6E23F6F}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{1668C6C1-3E02-4728-8CB9-0D98588B134A}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{187EEAD6-8570-4672-BEDB-21759E471FBB}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{96D97C51-D1CE-4D78-9C23-63EE1DB8D9A9}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{72B4D020-F3B5-4974-8887-79DF576B2300}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{D1BD19B0-C211-4233-9303-5F4E021FC679}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{ADB2BC46-A842-427D-BE34-66BE045A9481}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{38B13896-EADB-4A05-87AD-31FF31AF71C4}" name="AtkDmgPer"/>
+    <tableColumn id="1" xr3:uid="{FA9C8926-8639-44AA-8966-648D332127FA}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{AE876220-E54E-4943-83E6-E620B16C9AE7}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{D93F925C-DE68-472A-93B2-BFDBC55A6619}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{7CB03E98-2614-4C11-9907-F538C597A247}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{A147E1EB-BC86-4A5D-BC80-F75823995162}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{9F6F4BA8-E8FD-4258-8D00-CAC8153C014A}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{B55FC5F2-FD0B-4EB2-A026-F9DD537B87CF}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{0FB6FAA9-D1C2-4CC3-AE23-C717B3E3885E}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{C70E9D83-C202-47CF-9974-8EE47C345DFD}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{2FE0E132-0DC9-4961-B41B-C8170C9E850F}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{0098D4CE-E15F-4870-809A-A3666C99C50D}" name="ChargeTimes1"/>
+    <tableColumn id="9" xr3:uid="{DEDF4A84-F38A-44EC-8507-FB02A07DEFE1}" name="ChargeTimes2"/>
+    <tableColumn id="10" xr3:uid="{2A48A738-490C-45D7-805A-7B49D156D339}" name="ChargeTimes3"/>
+    <tableColumn id="11" xr3:uid="{409018FD-81FE-40BF-B07E-F9BB3E220D14}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{D31EED67-7D6C-48E7-98D3-40B8055064B9}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{9D0C668E-7732-46A4-8DB5-F23D47058755}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{E39E61BA-73A7-4044-878B-22231EB72E63}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{04870FB0-C9C4-48B6-ABE8-3B37BAEC63F9}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{D20E706F-48C8-4FFC-92ED-8CDBAEDC6943}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{7E93FD37-1D7B-4942-A5B6-F5A4BE87BBA1}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{2466F776-739F-427B-85B8-81740976ADC4}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{2707D065-D3FA-486A-AE88-8C4EEE09206B}" name="ChargeBounceCount4"/>
+    <tableColumn id="12" xr3:uid="{37D69030-1B81-46F6-86E1-3184E6264083}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{A2A1221C-0046-497A-97FE-1C784D2C44AE}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{671052BB-6AE1-4343-9EDF-E8128AD24F90}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{91C9B6EA-4763-49C7-839B-3F22EBACBC94}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{51B09E71-5361-40CC-89E8-678377D081BD}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{EBED5A2D-3B74-4A78-8C2B-B27C80262CED}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{BE276AF0-1138-4162-B0C9-033C08990350}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{18C876B9-EC64-4E44-9ED7-F84F67FDC0EA}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{55DB9B3D-0B63-454E-B941-B87AEBF25ED3}" name="AtkDmgPer"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -764,46 +764,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7423A0-9AD5-464E-A745-6E59C9EE18EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375AB050-AC64-4606-B362-2E4F1F89D074}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="B1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:32">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -824,10 +821,10 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -836,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1" t="s">
         <v>0</v>
@@ -889,194 +886,197 @@
       <c r="AE1" t="s">
         <v>0</v>
       </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
+    <row r="2" spans="2:32">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3">
+    <row r="3" spans="2:32">
+      <c r="B3">
         <v>200</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1.2</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0.7</v>
-      </c>
-      <c r="E3">
-        <v>150</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>500</v>
-      </c>
-      <c r="H3">
+      <c r="J3">
+        <v>2.5</v>
+      </c>
+      <c r="K3">
+        <v>120</v>
+      </c>
+      <c r="L3">
         <v>0.5</v>
       </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>120</v>
-      </c>
-      <c r="K3">
-        <v>0.5</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.5</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>14</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>30</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>50</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>70</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>90</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
       </c>
       <c r="T3">
         <v>3</v>
       </c>
       <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
         <v>4</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>5</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>10</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>15</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>20</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>30</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>10</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>15</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>20</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>30</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1</v>
       </c>
     </row>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7AC44B0-28B3-424A-98C5-2B2A7E7EA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D89CD516-70DE-4652-8E5F-27589978A857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6041727A-A1A5-4046-A4C7-A79519EACE97}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9526177C-9DC7-41F9-8D6B-AE5A96483907}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +53,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>지금 휘두르기 쿨타임 단위계 이상해서 밸런스 툴 오작동중임. 수정후 정상작동할거임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,15 +97,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChargeTimes1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeTimes2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeTimes3</t>
+    <t>ChargeTime1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeTime2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeTime3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -171,6 +178,42 @@
   </si>
   <si>
     <t>AtkDmgPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#던지기 DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#휘두르기 직접 공격 DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#차징1 직접 공격 DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#차징2 직접 공격 DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#차징3 직접 공격 DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#던진공 튕겨내기 DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#던진공 차징1 튕겨내기 DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#던진공 차징2 튕겨내기 DPS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#던진공 차징3 튕겨내기 DPS4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +242,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -208,6 +260,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -272,17 +331,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -292,6 +354,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
@@ -410,7 +475,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8C46E6E4-107C-4810-AF0F-2FFA5D79DE72}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7EE3A00A-5F6F-4933-BD42-33268A490059}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -428,41 +493,123 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="시트별저장버튼"/>
+      <sheetName val="아이템 밸런스 시트"/>
+      <sheetName val="전투 밸런스 시트"/>
+      <sheetName val="공용데이터(참고용)"/>
+      <sheetName val="CharacterGameData"/>
+      <sheetName val="CharacterAtkGameData"/>
+      <sheetName val="ProductialMapGameData"/>
+      <sheetName val="DropGameData"/>
+      <sheetName val="EnemyGameData"/>
+      <sheetName val="EnemyAtkGameData"/>
+      <sheetName val="ShootGameData"/>
+      <sheetName val="ProjectileGameData"/>
+      <sheetName val="ItemGameData"/>
+      <sheetName val="ItemEffectGameData"/>
+      <sheetName val="ItemResourceGameData"/>
+      <sheetName val="LocaleGameData"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{288479ED-0186-49DB-AA63-21B0C7266FEA}" name="표6_8" displayName="표6_8" ref="B2:AF3" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B2:AF3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{FA9C8926-8639-44AA-8966-648D332127FA}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{AE876220-E54E-4943-83E6-E620B16C9AE7}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{D93F925C-DE68-472A-93B2-BFDBC55A6619}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{7CB03E98-2614-4C11-9907-F538C597A247}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{A147E1EB-BC86-4A5D-BC80-F75823995162}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{9F6F4BA8-E8FD-4258-8D00-CAC8153C014A}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{B55FC5F2-FD0B-4EB2-A026-F9DD537B87CF}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{0FB6FAA9-D1C2-4CC3-AE23-C717B3E3885E}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{C70E9D83-C202-47CF-9974-8EE47C345DFD}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{2FE0E132-0DC9-4961-B41B-C8170C9E850F}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{0098D4CE-E15F-4870-809A-A3666C99C50D}" name="ChargeTimes1"/>
-    <tableColumn id="9" xr3:uid="{DEDF4A84-F38A-44EC-8507-FB02A07DEFE1}" name="ChargeTimes2"/>
-    <tableColumn id="10" xr3:uid="{2A48A738-490C-45D7-805A-7B49D156D339}" name="ChargeTimes3"/>
-    <tableColumn id="11" xr3:uid="{409018FD-81FE-40BF-B07E-F9BB3E220D14}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{D31EED67-7D6C-48E7-98D3-40B8055064B9}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{9D0C668E-7732-46A4-8DB5-F23D47058755}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{E39E61BA-73A7-4044-878B-22231EB72E63}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{04870FB0-C9C4-48B6-ABE8-3B37BAEC63F9}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{D20E706F-48C8-4FFC-92ED-8CDBAEDC6943}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{7E93FD37-1D7B-4942-A5B6-F5A4BE87BBA1}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{2466F776-739F-427B-85B8-81740976ADC4}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{2707D065-D3FA-486A-AE88-8C4EEE09206B}" name="ChargeBounceCount4"/>
-    <tableColumn id="12" xr3:uid="{37D69030-1B81-46F6-86E1-3184E6264083}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{A2A1221C-0046-497A-97FE-1C784D2C44AE}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{671052BB-6AE1-4343-9EDF-E8128AD24F90}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{91C9B6EA-4763-49C7-839B-3F22EBACBC94}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{51B09E71-5361-40CC-89E8-678377D081BD}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{EBED5A2D-3B74-4A78-8C2B-B27C80262CED}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{BE276AF0-1138-4162-B0C9-033C08990350}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{18C876B9-EC64-4E44-9ED7-F84F67FDC0EA}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{55DB9B3D-0B63-454E-B941-B87AEBF25ED3}" name="AtkDmgPer"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B28AFCD5-D520-45FA-AA1D-5D81679EBB7C}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B2:AO3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="40">
+    <tableColumn id="1" xr3:uid="{EEB31A55-543F-43CB-8BB1-19EA822A5796}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{16C080CB-DED8-41CE-AF4B-31F455A60D5F}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{034FF2C3-B424-4052-A8A9-B2027F779CB1}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{55468FB1-8F31-4A78-B598-A2B2EE791D40}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{71B7CF92-47FA-4B47-BC0C-968D23A05566}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{FAB66652-6049-45EF-9322-500E72E17607}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{A134644B-0F52-4FBE-BBC2-BFBCAF98911A}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{3C284DDE-047B-497F-9613-2A2E6AB1E9FF}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{8ACAFA53-395E-4DC8-B685-11A8CD3665AE}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{922F40A2-487D-4740-90A0-D47D17C800D1}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{45862E59-BA95-445F-99EA-1178F27090CF}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{4F474FE0-6DCF-4FCC-BB75-BDAD3A56E31F}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{4C631BA3-0214-470E-9BF5-2E8E153832BE}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{F830B60B-1E42-4497-99A7-6736B1302BF6}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{6DECE5D2-885A-4CAB-A58E-BB430C2C8731}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{E5F03697-4E53-4386-857C-E7D0638EE88A}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{DAE5D131-EF7C-490A-9E20-A92D60A16F35}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{4497FDF5-3141-4E32-81C9-13370C985A43}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{73907395-4581-47E3-B8AA-A0F354AF0990}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{700D44E1-4F88-4978-A3DA-956D8C0CC10B}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{7D8D4834-9C80-4FCB-AF1B-264F92E3A13D}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{C8E6E190-807A-4E06-9628-7F3633AE349F}" name="ChargeBounceCount4"/>
+    <tableColumn id="12" xr3:uid="{5B93D85B-59B3-46C5-B5DE-2037A92F0D27}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{A45DAFF5-D8DD-42A6-A0BC-2EEB0794FE03}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{03E15F36-BD5D-44A8-B5D0-2975F95F806B}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{FB18BBB9-68E2-4D4C-9844-F8039508D366}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{909E4AE5-CA4F-408B-B1E3-7758B36F3A61}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{9B9C92D1-2429-4662-91D4-16228C26E0E4}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{22245C3A-B3E6-4266-812C-F7091817F06A}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{F8666579-C6A6-47B1-AB58-8EABDAB1A53D}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{B644CAEA-4AD4-43FB-957C-235805BB472E}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{F7AF8A8F-7EC5-4BD5-AE3C-6033EA856371}" name="#던지기 DPS">
+      <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
+( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="32" xr3:uid="{B7643A58-A758-4217-AF8C-25E8EE463DB5}" name="#휘두르기 직접 공격 DPS">
+      <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="34" xr3:uid="{1B566AD8-C301-4E67-8DB0-487EBD8DDE76}" name="#차징1 직접 공격 DPS">
+      <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="35" xr3:uid="{BA20B484-8F37-428A-8C7A-7D6EE1FFA6F5}" name="#차징2 직접 공격 DPS">
+      <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="36" xr3:uid="{AE50C797-D4C7-4E36-A9D5-33936ADC3C2D}" name="#차징3 직접 공격 DPS">
+      <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="37" xr3:uid="{4B892A8B-E1B9-4564-AB63-A61754C65ACF}" name="#던진공 튕겨내기 DPS">
+      <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
+* (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="38" xr3:uid="{5E6298E1-F39F-48A5-AD08-837380C0B0AE}" name="#던진공 차징1 튕겨내기 DPS">
+      <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
+* (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="39" xr3:uid="{6F962881-EB84-40E2-AD9E-304BB4027FB6}" name="#던진공 차징2 튕겨내기 DPS3">
+      <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
+* (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="40" xr3:uid="{E576287E-5647-4A4A-8C19-948D0FA07F2F}" name="#던진공 차징3 튕겨내기 DPS4">
+      <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
+* (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -764,14 +911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375AB050-AC64-4606-B362-2E4F1F89D074}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFDF040-E357-4F80-BD2B-3C51F506F0F2}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:AF3"/>
+  <dimension ref="B1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -793,9 +940,15 @@
     <col min="24" max="27" width="20.75" bestFit="1" customWidth="1"/>
     <col min="28" max="31" width="24.75" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17" customWidth="1"/>
+    <col min="34" max="34" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32">
+    <row r="1" spans="2:41">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -889,108 +1042,138 @@
       <c r="AF1" t="s">
         <v>0</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="2:32">
+    <row r="2" spans="2:41">
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="V2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="X2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Y2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="Z2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AB2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AC2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AD2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="AF2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="2:32">
+    <row r="3" spans="2:41">
       <c r="B3">
         <v>200</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>34</v>
+      <c r="C3" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1005,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -1026,7 +1209,7 @@
         <v>1.5</v>
       </c>
       <c r="O3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P3">
         <v>30</v>
@@ -1078,6 +1261,51 @@
       </c>
       <c r="AF3">
         <v>1</v>
+      </c>
+      <c r="AG3">
+        <f>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
+( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</f>
+        <v>12.5</v>
+      </c>
+      <c r="AH3">
+        <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</f>
+        <v>10</v>
+      </c>
+      <c r="AI3">
+        <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</f>
+        <v>10</v>
+      </c>
+      <c r="AJ3">
+        <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</f>
+        <v>10</v>
+      </c>
+      <c r="AK3">
+        <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</f>
+        <v>12</v>
+      </c>
+      <c r="AL3">
+        <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
+* (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</f>
+        <v>38</v>
+      </c>
+      <c r="AM3">
+        <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
+* (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</f>
+        <v>37.037037037037031</v>
+      </c>
+      <c r="AN3">
+        <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
+* (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</f>
+        <v>42.1875</v>
+      </c>
+      <c r="AO3">
+        <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
+* (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</f>
+        <v>52.027027027027025</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D89CD516-70DE-4652-8E5F-27589978A857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CD825A9-DAA5-4604-92BC-2DA86B033080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9526177C-9DC7-41F9-8D6B-AE5A96483907}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F0BE4E4-9430-45CB-9EAE-899E7E5C01B2}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7EE3A00A-5F6F-4933-BD42-33268A490059}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{72B858C2-12BE-4F32-BFCB-A787B786D98B}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -540,72 +540,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B28AFCD5-D520-45FA-AA1D-5D81679EBB7C}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44584B93-D12C-4B02-944A-5A6F83042B44}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:AO3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{EEB31A55-543F-43CB-8BB1-19EA822A5796}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{16C080CB-DED8-41CE-AF4B-31F455A60D5F}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{034FF2C3-B424-4052-A8A9-B2027F779CB1}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{55468FB1-8F31-4A78-B598-A2B2EE791D40}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{71B7CF92-47FA-4B47-BC0C-968D23A05566}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{FAB66652-6049-45EF-9322-500E72E17607}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{A134644B-0F52-4FBE-BBC2-BFBCAF98911A}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{3C284DDE-047B-497F-9613-2A2E6AB1E9FF}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{8ACAFA53-395E-4DC8-B685-11A8CD3665AE}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{922F40A2-487D-4740-90A0-D47D17C800D1}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{45862E59-BA95-445F-99EA-1178F27090CF}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{4F474FE0-6DCF-4FCC-BB75-BDAD3A56E31F}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{4C631BA3-0214-470E-9BF5-2E8E153832BE}" name="ChargeTime3"/>
-    <tableColumn id="11" xr3:uid="{F830B60B-1E42-4497-99A7-6736B1302BF6}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{6DECE5D2-885A-4CAB-A58E-BB430C2C8731}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{E5F03697-4E53-4386-857C-E7D0638EE88A}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{DAE5D131-EF7C-490A-9E20-A92D60A16F35}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{4497FDF5-3141-4E32-81C9-13370C985A43}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{73907395-4581-47E3-B8AA-A0F354AF0990}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{700D44E1-4F88-4978-A3DA-956D8C0CC10B}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{7D8D4834-9C80-4FCB-AF1B-264F92E3A13D}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{C8E6E190-807A-4E06-9628-7F3633AE349F}" name="ChargeBounceCount4"/>
-    <tableColumn id="12" xr3:uid="{5B93D85B-59B3-46C5-B5DE-2037A92F0D27}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{A45DAFF5-D8DD-42A6-A0BC-2EEB0794FE03}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{03E15F36-BD5D-44A8-B5D0-2975F95F806B}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{FB18BBB9-68E2-4D4C-9844-F8039508D366}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{909E4AE5-CA4F-408B-B1E3-7758B36F3A61}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{9B9C92D1-2429-4662-91D4-16228C26E0E4}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{22245C3A-B3E6-4266-812C-F7091817F06A}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{F8666579-C6A6-47B1-AB58-8EABDAB1A53D}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{B644CAEA-4AD4-43FB-957C-235805BB472E}" name="AtkDmgPer"/>
-    <tableColumn id="5" xr3:uid="{F7AF8A8F-7EC5-4BD5-AE3C-6033EA856371}" name="#던지기 DPS">
+    <tableColumn id="1" xr3:uid="{D7493F92-EDB2-4F1D-91BB-98DA9B1A50D6}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{D0571948-1A6F-4E00-839E-6EC4026F2CA3}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{24DED517-AEBF-4822-B025-65CA011D7A57}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{423EF83D-0C61-4FB2-AD7E-DEF2D4DC3C7F}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{0030A352-AA92-4585-9C3C-34AA022AA412}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{BBA608DC-E837-49D5-B366-8A446C05778F}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{33F25294-A291-4E52-B9C4-B9AC6A494F8E}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{0530D865-9119-4D72-979C-A5EFCB197C50}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{E0930E97-11F7-47EE-9888-2E3F5CFD0F57}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{33B80F41-8810-4E80-B74D-890580FB5BED}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{098E095B-D36A-454D-A4A4-3368306C3FB8}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{E1C60BC4-0806-4BC9-8096-D96096B91F5B}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{31A1CF4A-1301-4FE9-A1A3-B08B5E9CF088}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{24D5ABAE-0608-4FCE-A9C3-57C09E6DD3A4}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{58807052-AA0D-4637-A286-0301AB99624D}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{639777C2-5FEC-480A-BC57-5DD091B69EA5}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{CD6A4255-3AF0-4D02-A9C9-7806108BA694}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{D8FFAA82-0072-4B30-A01A-4A34BB2E2D41}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{EF11C1E1-C89C-4AE0-8995-813CFC63FB46}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{BAC28BD5-883D-4E38-85F4-CBAB67BA1533}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{367D2EB2-BC81-4D22-8BCC-C3DC12953A23}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{59F549D1-492E-4597-9618-E2A4A7BBC002}" name="ChargeBounceCount4"/>
+    <tableColumn id="12" xr3:uid="{55AD5EFA-3A8C-4A37-97C0-38DB26AFE063}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{092D58E2-5044-4C7C-B2DB-3C0AC3998993}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{3BC9CC49-E31B-45F3-81D8-F803F931972F}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{8BD417CC-56BD-427D-BFCC-75C779B06FC4}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{C1ACDFE2-66A4-4186-B0AB-689941D74646}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{DF74424B-0130-4073-987D-57FA7F10E2B3}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{5324BA43-11EC-485B-9150-980971E3C0F8}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{0A77478D-B73C-4A2F-9C6A-ED4DEC4ACD74}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{D1DA91A2-8952-48BC-B4DB-4AC9BF629F66}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{CFB95128-E1E4-444F-8051-D550AB6B1FF7}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{B7643A58-A758-4217-AF8C-25E8EE463DB5}" name="#휘두르기 직접 공격 DPS">
+    <tableColumn id="32" xr3:uid="{876B9209-F126-4505-B0FA-02FEF3774953}" name="#휘두르기 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{1B566AD8-C301-4E67-8DB0-487EBD8DDE76}" name="#차징1 직접 공격 DPS">
+    <tableColumn id="34" xr3:uid="{4B9750A3-4609-4780-A319-F245CB447865}" name="#차징1 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{BA20B484-8F37-428A-8C7A-7D6EE1FFA6F5}" name="#차징2 직접 공격 DPS">
+    <tableColumn id="35" xr3:uid="{65397134-BA52-446B-836C-EE7346A9AAD6}" name="#차징2 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{AE50C797-D4C7-4E36-A9D5-33936ADC3C2D}" name="#차징3 직접 공격 DPS">
+    <tableColumn id="36" xr3:uid="{A8057849-DF00-4BBB-8DBF-51E9B9D46544}" name="#차징3 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{4B892A8B-E1B9-4564-AB63-A61754C65ACF}" name="#던진공 튕겨내기 DPS">
+    <tableColumn id="37" xr3:uid="{E0E6A719-C36A-46F6-AE0F-45ADC91B2874}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{5E6298E1-F39F-48A5-AD08-837380C0B0AE}" name="#던진공 차징1 튕겨내기 DPS">
+    <tableColumn id="38" xr3:uid="{1CDA5305-A973-43E7-8A7C-97AA0FB2721B}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{6F962881-EB84-40E2-AD9E-304BB4027FB6}" name="#던진공 차징2 튕겨내기 DPS3">
+    <tableColumn id="39" xr3:uid="{0674B944-F39B-4DD2-91BA-18A5343F1ACA}" name="#던진공 차징2 튕겨내기 DPS3">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{E576287E-5647-4A4A-8C19-948D0FA07F2F}" name="#던진공 차징3 튕겨내기 DPS4">
+    <tableColumn id="40" xr3:uid="{581B10C6-ABF8-4F1D-AA39-3426C9383E3A}" name="#던진공 차징3 튕겨내기 DPS4">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
@@ -911,14 +911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFDF040-E357-4F80-BD2B-3C51F506F0F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5277104-5364-4B02-AFC0-4EBA49F1C0E4}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1176,7 +1176,7 @@
         <v>44</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1.2</v>
@@ -1188,13 +1188,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>0.5</v>
       </c>
       <c r="J3">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K3">
         <v>120</v>
@@ -1265,47 +1265,47 @@
       <c r="AG3">
         <f>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</f>
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="AH3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</f>
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="AI3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</f>
-        <v>10</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="AJ3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</f>
-        <v>10</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="AK3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</f>
-        <v>12</v>
+        <v>1.3953488372093024</v>
       </c>
       <c r="AL3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</f>
-        <v>38</v>
+        <v>4.75</v>
       </c>
       <c r="AM3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</f>
-        <v>37.037037037037031</v>
+        <v>4.6082949308755765</v>
       </c>
       <c r="AN3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</f>
-        <v>42.1875</v>
+        <v>6.0810810810810816</v>
       </c>
       <c r="AO3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</f>
-        <v>52.027027027027025</v>
+        <v>8.4801762114537453</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CD825A9-DAA5-4604-92BC-2DA86B033080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9BE796A-6743-41BC-A5BE-36E40A0396BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F0BE4E4-9430-45CB-9EAE-899E7E5C01B2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC10F4C-5C91-4C76-928B-44FB2C132F79}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{72B858C2-12BE-4F32-BFCB-A787B786D98B}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{244457BE-F43A-4D12-B406-CD31E2E37E4B}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -540,72 +540,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44584B93-D12C-4B02-944A-5A6F83042B44}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DF7FF33-FA69-405B-872A-5628024373E3}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:AO3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{D7493F92-EDB2-4F1D-91BB-98DA9B1A50D6}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{D0571948-1A6F-4E00-839E-6EC4026F2CA3}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{24DED517-AEBF-4822-B025-65CA011D7A57}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{423EF83D-0C61-4FB2-AD7E-DEF2D4DC3C7F}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{0030A352-AA92-4585-9C3C-34AA022AA412}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{BBA608DC-E837-49D5-B366-8A446C05778F}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{33F25294-A291-4E52-B9C4-B9AC6A494F8E}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{0530D865-9119-4D72-979C-A5EFCB197C50}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{E0930E97-11F7-47EE-9888-2E3F5CFD0F57}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{33B80F41-8810-4E80-B74D-890580FB5BED}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{098E095B-D36A-454D-A4A4-3368306C3FB8}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{E1C60BC4-0806-4BC9-8096-D96096B91F5B}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{31A1CF4A-1301-4FE9-A1A3-B08B5E9CF088}" name="ChargeTime3"/>
-    <tableColumn id="11" xr3:uid="{24D5ABAE-0608-4FCE-A9C3-57C09E6DD3A4}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{58807052-AA0D-4637-A286-0301AB99624D}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{639777C2-5FEC-480A-BC57-5DD091B69EA5}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{CD6A4255-3AF0-4D02-A9C9-7806108BA694}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{D8FFAA82-0072-4B30-A01A-4A34BB2E2D41}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{EF11C1E1-C89C-4AE0-8995-813CFC63FB46}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{BAC28BD5-883D-4E38-85F4-CBAB67BA1533}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{367D2EB2-BC81-4D22-8BCC-C3DC12953A23}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{59F549D1-492E-4597-9618-E2A4A7BBC002}" name="ChargeBounceCount4"/>
-    <tableColumn id="12" xr3:uid="{55AD5EFA-3A8C-4A37-97C0-38DB26AFE063}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{092D58E2-5044-4C7C-B2DB-3C0AC3998993}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{3BC9CC49-E31B-45F3-81D8-F803F931972F}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{8BD417CC-56BD-427D-BFCC-75C779B06FC4}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{C1ACDFE2-66A4-4186-B0AB-689941D74646}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{DF74424B-0130-4073-987D-57FA7F10E2B3}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{5324BA43-11EC-485B-9150-980971E3C0F8}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{0A77478D-B73C-4A2F-9C6A-ED4DEC4ACD74}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{D1DA91A2-8952-48BC-B4DB-4AC9BF629F66}" name="AtkDmgPer"/>
-    <tableColumn id="5" xr3:uid="{CFB95128-E1E4-444F-8051-D550AB6B1FF7}" name="#던지기 DPS">
+    <tableColumn id="1" xr3:uid="{F24BB758-0034-4E76-B368-D7EC0AA2693F}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{80A4BF56-75F3-4BFB-892C-F69092C621BD}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{A9D24405-8323-4649-B7F5-EF1BA84996BE}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{E777F458-C260-4971-8A06-3111FFCF78BF}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{CB7F6A0E-FD91-4D13-A2F6-E67023709774}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{24D48661-8D6E-4604-BFA0-706D8B84829E}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{5133EBF6-3A68-4836-BBC0-8F7C50DBE7AB}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{85C7F51C-4F1B-43BE-82E1-95CF849226CF}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{866BAC07-BA18-40CA-9741-7AA80F0DD8D3}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{A9B77715-7B0B-4BF9-A69B-BF59B518D06E}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{C6BF2D2D-2F95-4C91-BE65-671886DE74A1}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{C69378E6-B4C8-45EE-B3F7-F33776BD9A36}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{1CD51A9C-5D3D-4023-AE60-0E3D65FA3D7A}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{0480E87A-2595-461A-96DC-2A4354CE179A}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{69A7179D-18F2-4C4B-834D-1808D1D15A1A}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{BE48A954-9D24-4D62-A73B-935230C7F593}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{337011C0-A626-4820-B64E-A8314D761267}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{C5D9744F-6810-4E70-BF72-C9B6417955FB}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{5CCDD876-0D57-4782-B1A5-AE4837C18453}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{555F50AB-882C-4920-84B1-076504A60FC9}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{777DE44C-F43F-41C5-B197-814799FD54C7}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{4FA304A9-27B1-46A9-9820-32382AB8B815}" name="ChargeBounceCount4"/>
+    <tableColumn id="12" xr3:uid="{A5E1169A-CBE7-43D2-A4A2-D99B18B8E2C0}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{18C5D247-72F4-4778-BAB4-08EE0D835D8B}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{1077C84C-8B56-406A-A541-E43EA88CC84C}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{8EE5C586-264F-4D71-8D1B-5068D6C0A1DB}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{5E132289-829E-45EC-B726-ADAA51F989D2}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{F00C767D-BA01-4358-ACBD-3A265CBBD8E2}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{A73DF32B-014A-48F2-8047-F481AEA6EC3E}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{4DA3E613-5688-4EAF-89E7-A688A0A2A15D}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{43595A75-8EA9-4F3E-9A53-1C29BE5D27BB}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{62CFA133-14A2-4A25-B1FE-9D9D75B50F1C}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{876B9209-F126-4505-B0FA-02FEF3774953}" name="#휘두르기 직접 공격 DPS">
+    <tableColumn id="32" xr3:uid="{910FC9C2-2DD9-4A48-95B0-CABADC493EBD}" name="#휘두르기 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{4B9750A3-4609-4780-A319-F245CB447865}" name="#차징1 직접 공격 DPS">
+    <tableColumn id="34" xr3:uid="{4A29F940-F4AE-4744-92FD-5F1B7C525513}" name="#차징1 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{65397134-BA52-446B-836C-EE7346A9AAD6}" name="#차징2 직접 공격 DPS">
+    <tableColumn id="35" xr3:uid="{A24D8213-08B1-4C54-98EC-3D82ED011221}" name="#차징2 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{A8057849-DF00-4BBB-8DBF-51E9B9D46544}" name="#차징3 직접 공격 DPS">
+    <tableColumn id="36" xr3:uid="{9025F080-330A-4226-B0C2-CA0F38B9EA4E}" name="#차징3 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{E0E6A719-C36A-46F6-AE0F-45ADC91B2874}" name="#던진공 튕겨내기 DPS">
+    <tableColumn id="37" xr3:uid="{4E0241C2-4909-4486-8F4F-216139948B80}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{1CDA5305-A973-43E7-8A7C-97AA0FB2721B}" name="#던진공 차징1 튕겨내기 DPS">
+    <tableColumn id="38" xr3:uid="{056D54B2-0DF2-4991-B3CD-434A5DA8E1C0}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{0674B944-F39B-4DD2-91BA-18A5343F1ACA}" name="#던진공 차징2 튕겨내기 DPS3">
+    <tableColumn id="39" xr3:uid="{982C92C0-516A-4478-A49A-EA655BC79EB9}" name="#던진공 차징2 튕겨내기 DPS3">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{581B10C6-ABF8-4F1D-AA39-3426C9383E3A}" name="#던진공 차징3 튕겨내기 DPS4">
+    <tableColumn id="40" xr3:uid="{24C8D47C-3CC8-4F71-AF65-FE6E98B3D9B4}" name="#던진공 차징3 튕겨내기 DPS4">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
@@ -911,14 +911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5277104-5364-4B02-AFC0-4EBA49F1C0E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5271B47-48F0-4BF6-A0D6-E5CF6B27B8C8}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:AO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1194,7 +1194,7 @@
         <v>0.5</v>
       </c>
       <c r="J3">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K3">
         <v>120</v>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9BE796A-6743-41BC-A5BE-36E40A0396BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3954F7C4-94DF-4393-9679-061A380FBCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC10F4C-5C91-4C76-928B-44FB2C132F79}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85CF85C0-0DC2-41E8-93C5-A815DE396A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{244457BE-F43A-4D12-B406-CD31E2E37E4B}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{AD8F274E-20AC-4368-86D3-92F43C17BD3B}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -540,72 +540,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DF7FF33-FA69-405B-872A-5628024373E3}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{725CE467-5B28-4A62-BE06-FAEC96F970D4}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:AO3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{F24BB758-0034-4E76-B368-D7EC0AA2693F}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{80A4BF56-75F3-4BFB-892C-F69092C621BD}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{A9D24405-8323-4649-B7F5-EF1BA84996BE}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{E777F458-C260-4971-8A06-3111FFCF78BF}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{CB7F6A0E-FD91-4D13-A2F6-E67023709774}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{24D48661-8D6E-4604-BFA0-706D8B84829E}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{5133EBF6-3A68-4836-BBC0-8F7C50DBE7AB}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{85C7F51C-4F1B-43BE-82E1-95CF849226CF}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{866BAC07-BA18-40CA-9741-7AA80F0DD8D3}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{A9B77715-7B0B-4BF9-A69B-BF59B518D06E}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{C6BF2D2D-2F95-4C91-BE65-671886DE74A1}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{C69378E6-B4C8-45EE-B3F7-F33776BD9A36}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{1CD51A9C-5D3D-4023-AE60-0E3D65FA3D7A}" name="ChargeTime3"/>
-    <tableColumn id="11" xr3:uid="{0480E87A-2595-461A-96DC-2A4354CE179A}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{69A7179D-18F2-4C4B-834D-1808D1D15A1A}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{BE48A954-9D24-4D62-A73B-935230C7F593}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{337011C0-A626-4820-B64E-A8314D761267}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{C5D9744F-6810-4E70-BF72-C9B6417955FB}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{5CCDD876-0D57-4782-B1A5-AE4837C18453}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{555F50AB-882C-4920-84B1-076504A60FC9}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{777DE44C-F43F-41C5-B197-814799FD54C7}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{4FA304A9-27B1-46A9-9820-32382AB8B815}" name="ChargeBounceCount4"/>
-    <tableColumn id="12" xr3:uid="{A5E1169A-CBE7-43D2-A4A2-D99B18B8E2C0}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{18C5D247-72F4-4778-BAB4-08EE0D835D8B}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{1077C84C-8B56-406A-A541-E43EA88CC84C}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{8EE5C586-264F-4D71-8D1B-5068D6C0A1DB}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{5E132289-829E-45EC-B726-ADAA51F989D2}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{F00C767D-BA01-4358-ACBD-3A265CBBD8E2}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{A73DF32B-014A-48F2-8047-F481AEA6EC3E}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{4DA3E613-5688-4EAF-89E7-A688A0A2A15D}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{43595A75-8EA9-4F3E-9A53-1C29BE5D27BB}" name="AtkDmgPer"/>
-    <tableColumn id="5" xr3:uid="{62CFA133-14A2-4A25-B1FE-9D9D75B50F1C}" name="#던지기 DPS">
+    <tableColumn id="1" xr3:uid="{C1B5F6C8-79BE-469A-82F4-DB602B4EFFFC}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{63AA380A-077E-4638-AB0E-6E39C5C3FEB1}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{8A2EDE3B-CB12-4720-86F1-4F3253C8B414}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{F27A0CDC-F12F-46F6-9856-2A892F7B14FE}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{F9460254-2644-487B-A6A9-708C67BA56FB}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{3A2E8C02-1F09-4431-9009-A20D3E3036CE}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{A4E9A56E-39EE-4873-A774-7E6F2184CBE5}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{FCBEFBF5-FB0F-4CCD-8EEB-652B68BAE2B7}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{4ADCB0BF-530D-495C-B4F3-9DFBCFF1AEE3}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{DED217E8-B8FE-4083-B38E-C31E93235034}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{5CD40A88-F036-4C44-A276-989118A060D5}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{4C18E74E-3FB5-4B69-BB7C-4A4F30BFF61C}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{FF45C111-B723-4C46-A694-C7CE766CC41E}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{60B625DC-1A5E-4667-9FA2-C7814F8D559E}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{7F56CE77-75AA-4438-BC58-AD6CFEA772B7}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{F3060BD7-6117-4B21-83A3-F005B2084AE2}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{DE542714-878E-45AB-B8A0-8BB169C2A66C}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{A84115C7-E5E0-4E16-A229-BE8B51CC220A}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{05D58792-7B49-42C8-AA44-3102E514DF18}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{E1D1CE7D-4E52-460B-BE3A-4FCFA22A51BA}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{DDED6A86-46CC-4892-8D8C-D8013A2FE015}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{0FF73232-E17B-46A2-BF37-C1F21530248C}" name="ChargeBounceCount4"/>
+    <tableColumn id="12" xr3:uid="{99CD85AD-5340-462D-ADBE-A509AB729FE1}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{EB2EA11A-F74B-4E76-A3AB-12894BAC55F1}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{D4DDE864-7A53-4570-A3C5-0959DD8AE54A}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{3F83D9F7-1B56-4C4A-B569-6ED2F023478C}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{1F4707B1-2995-4E25-A2BF-A8C0410DB9EE}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{6F4B57D0-A2B7-4F04-AC7B-E3249A3F9978}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{88581F90-1901-413D-AAE2-FD927C60140E}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{AFA947CA-DFDC-42FF-990D-6578FEA4AE6E}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{9B7CE9CD-D1EF-4FC1-8EA7-5A35E41B502E}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{161C0A91-EB60-4AB2-9C7A-1A6DA634CD4D}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{910FC9C2-2DD9-4A48-95B0-CABADC493EBD}" name="#휘두르기 직접 공격 DPS">
+    <tableColumn id="32" xr3:uid="{4C4EFEDE-945B-4B0B-BD96-0404C305A7C7}" name="#휘두르기 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{4A29F940-F4AE-4744-92FD-5F1B7C525513}" name="#차징1 직접 공격 DPS">
+    <tableColumn id="34" xr3:uid="{427CA408-295E-425D-B48C-13ACD75B11D8}" name="#차징1 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{A24D8213-08B1-4C54-98EC-3D82ED011221}" name="#차징2 직접 공격 DPS">
+    <tableColumn id="35" xr3:uid="{8AB7185F-071D-4AFB-AAAA-BE15F125EC4C}" name="#차징2 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{9025F080-330A-4226-B0C2-CA0F38B9EA4E}" name="#차징3 직접 공격 DPS">
+    <tableColumn id="36" xr3:uid="{ACFD0B8D-E40F-40CA-9500-E6635E1D48AA}" name="#차징3 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{4E0241C2-4909-4486-8F4F-216139948B80}" name="#던진공 튕겨내기 DPS">
+    <tableColumn id="37" xr3:uid="{CF1EB7B7-9A24-44D1-B9FE-183FB81D74A8}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{056D54B2-0DF2-4991-B3CD-434A5DA8E1C0}" name="#던진공 차징1 튕겨내기 DPS">
+    <tableColumn id="38" xr3:uid="{BB8BE7E2-E11E-49E3-BAA6-A43D4C06BF2E}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{982C92C0-516A-4478-A49A-EA655BC79EB9}" name="#던진공 차징2 튕겨내기 DPS3">
+    <tableColumn id="39" xr3:uid="{CC025782-6265-4F6B-BB62-964AE13DC88B}" name="#던진공 차징2 튕겨내기 DPS3">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{24C8D47C-3CC8-4F71-AF65-FE6E98B3D9B4}" name="#던진공 차징3 튕겨내기 DPS4">
+    <tableColumn id="40" xr3:uid="{D783CAA0-DB7C-4920-BE75-1BDD92D61C9D}" name="#던진공 차징3 튕겨내기 DPS4">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
@@ -911,14 +911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5271B47-48F0-4BF6-A0D6-E5CF6B27B8C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E191EC3E-4EAA-4FE3-AA36-CB97942B5779}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:AO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3954F7C4-94DF-4393-9679-061A380FBCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90A4F840-868F-489F-9B49-7D3750F6B4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85CF85C0-0DC2-41E8-93C5-A815DE396A7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1335450E-7648-497B-A784-B24D5002321A}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{AD8F274E-20AC-4368-86D3-92F43C17BD3B}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{0A52E369-2E40-4417-87CE-2557728DA89D}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -540,72 +540,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{725CE467-5B28-4A62-BE06-FAEC96F970D4}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59164A79-BA50-479C-A5AC-CBFBCF9D9923}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:AO3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{C1B5F6C8-79BE-469A-82F4-DB602B4EFFFC}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{63AA380A-077E-4638-AB0E-6E39C5C3FEB1}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{8A2EDE3B-CB12-4720-86F1-4F3253C8B414}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{F27A0CDC-F12F-46F6-9856-2A892F7B14FE}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{F9460254-2644-487B-A6A9-708C67BA56FB}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{3A2E8C02-1F09-4431-9009-A20D3E3036CE}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{A4E9A56E-39EE-4873-A774-7E6F2184CBE5}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{FCBEFBF5-FB0F-4CCD-8EEB-652B68BAE2B7}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{4ADCB0BF-530D-495C-B4F3-9DFBCFF1AEE3}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{DED217E8-B8FE-4083-B38E-C31E93235034}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{5CD40A88-F036-4C44-A276-989118A060D5}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{4C18E74E-3FB5-4B69-BB7C-4A4F30BFF61C}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{FF45C111-B723-4C46-A694-C7CE766CC41E}" name="ChargeTime3"/>
-    <tableColumn id="11" xr3:uid="{60B625DC-1A5E-4667-9FA2-C7814F8D559E}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{7F56CE77-75AA-4438-BC58-AD6CFEA772B7}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{F3060BD7-6117-4B21-83A3-F005B2084AE2}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{DE542714-878E-45AB-B8A0-8BB169C2A66C}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{A84115C7-E5E0-4E16-A229-BE8B51CC220A}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{05D58792-7B49-42C8-AA44-3102E514DF18}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{E1D1CE7D-4E52-460B-BE3A-4FCFA22A51BA}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{DDED6A86-46CC-4892-8D8C-D8013A2FE015}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{0FF73232-E17B-46A2-BF37-C1F21530248C}" name="ChargeBounceCount4"/>
-    <tableColumn id="12" xr3:uid="{99CD85AD-5340-462D-ADBE-A509AB729FE1}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{EB2EA11A-F74B-4E76-A3AB-12894BAC55F1}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{D4DDE864-7A53-4570-A3C5-0959DD8AE54A}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{3F83D9F7-1B56-4C4A-B569-6ED2F023478C}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{1F4707B1-2995-4E25-A2BF-A8C0410DB9EE}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{6F4B57D0-A2B7-4F04-AC7B-E3249A3F9978}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{88581F90-1901-413D-AAE2-FD927C60140E}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{AFA947CA-DFDC-42FF-990D-6578FEA4AE6E}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{9B7CE9CD-D1EF-4FC1-8EA7-5A35E41B502E}" name="AtkDmgPer"/>
-    <tableColumn id="5" xr3:uid="{161C0A91-EB60-4AB2-9C7A-1A6DA634CD4D}" name="#던지기 DPS">
+    <tableColumn id="1" xr3:uid="{87442F5C-6CA8-4294-A2F6-242407230223}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{6882F068-361A-4F9B-AA2C-566D324A6A13}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{CFBD4DE3-5A65-4551-8E49-358DE0ED92D8}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{7170D95C-15D9-4A18-9134-89630A1FB129}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{3FB61444-E801-46E5-8F19-7D0BD53E1D9D}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{D7397C78-0A81-419D-9F07-A13069DCF711}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{01AB8101-E05B-4228-BBA1-E9F86E383310}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{ABDE8A96-C578-452B-ADEB-05F6221FF2B7}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{BBE5F582-668E-46C3-9C55-0AC480D0A7C7}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{D3E22C32-5DD3-430C-AF5E-0C4B7DC9C1DB}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{A64FA152-513C-4DCF-857B-2A06999CAE7B}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{56E86B53-9506-41AF-A07C-7B855DF690D0}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{6F1A15F9-0388-4DD8-BE29-B6B75839A5DA}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{9410A931-1ED2-4BA0-8A8A-6BB368D8E838}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{FDBAD85F-F1A4-4BD2-AA39-9F565ABEDB87}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{9992AD75-768D-4339-B67B-ADFC50B21C14}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{299FCE68-86D6-40D2-B183-CEDAD2F7C73C}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{AC60E78A-1CFA-483F-B2C9-2CD031DE70AF}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{04011221-9019-4E06-B857-F4A29F71C114}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{6D7EACB7-556C-42EC-83B6-E58B9ECFDA78}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{5458948C-22E6-4E6D-9841-3D9EF858641B}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{D719EB13-537D-4992-BF82-225D7D023165}" name="ChargeBounceCount4"/>
+    <tableColumn id="12" xr3:uid="{04BA7AB5-3A81-40BD-B88E-E1807F7F6F05}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{95CE5045-75B1-4880-9D24-D2FB6C71D0E4}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{7253AA29-9471-4D87-AB50-C76100367B0F}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{5CAD9C13-02EE-4450-9EDD-AD37C6623006}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{6D81DB12-A911-43AB-8CF7-1EF7E3531A2D}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{8E1B87BB-2749-48C6-9314-3A052346FB67}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{4A265E95-4F17-4F67-9232-A23FBA8C842B}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{C0D860B0-171A-4767-A996-93754E50B1A0}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{A1B12B28-892A-4982-8F4A-CB7A4BEFD1B8}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{013C62ED-DCA9-408E-A713-EBB717CA4E3D}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{4C4EFEDE-945B-4B0B-BD96-0404C305A7C7}" name="#휘두르기 직접 공격 DPS">
+    <tableColumn id="32" xr3:uid="{F9DE310D-D90D-465B-A5F4-5DA9FD5E6D24}" name="#휘두르기 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{427CA408-295E-425D-B48C-13ACD75B11D8}" name="#차징1 직접 공격 DPS">
+    <tableColumn id="34" xr3:uid="{06727343-76FF-4C76-9018-CE40485FF282}" name="#차징1 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{8AB7185F-071D-4AFB-AAAA-BE15F125EC4C}" name="#차징2 직접 공격 DPS">
+    <tableColumn id="35" xr3:uid="{BC174FD9-42C1-4DAD-8D95-4D193472114D}" name="#차징2 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{ACFD0B8D-E40F-40CA-9500-E6635E1D48AA}" name="#차징3 직접 공격 DPS">
+    <tableColumn id="36" xr3:uid="{F70BAE73-0D4B-498B-8DDB-9280E4579B6D}" name="#차징3 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{CF1EB7B7-9A24-44D1-B9FE-183FB81D74A8}" name="#던진공 튕겨내기 DPS">
+    <tableColumn id="37" xr3:uid="{8217079D-65A2-4DE8-A23B-937D3387CF07}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{BB8BE7E2-E11E-49E3-BAA6-A43D4C06BF2E}" name="#던진공 차징1 튕겨내기 DPS">
+    <tableColumn id="38" xr3:uid="{D4B30A6E-6027-415B-8405-374C34EA0A61}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{CC025782-6265-4F6B-BB62-964AE13DC88B}" name="#던진공 차징2 튕겨내기 DPS3">
+    <tableColumn id="39" xr3:uid="{5D444318-C616-42BB-8596-B0FC283D4991}" name="#던진공 차징2 튕겨내기 DPS3">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{D783CAA0-DB7C-4920-BE75-1BDD92D61C9D}" name="#던진공 차징3 튕겨내기 DPS4">
+    <tableColumn id="40" xr3:uid="{211126C9-E2D5-435D-B975-942C1B411B0A}" name="#던진공 차징3 튕겨내기 DPS4">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
@@ -911,14 +911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E191EC3E-4EAA-4FE3-AA36-CB97942B5779}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8392062-21AB-4DB3-A74C-D805237182CF}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:AO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90A4F840-868F-489F-9B49-7D3750F6B4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A99FCC4E-339A-4EF8-947A-C707D2BC255B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1335450E-7648-497B-A784-B24D5002321A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{513ADF9D-ABC9-4559-9751-354E8E2529D0}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{0A52E369-2E40-4417-87CE-2557728DA89D}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{5CCBDFD7-2FFB-42DF-8A93-1A08E36F315D}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -540,72 +540,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59164A79-BA50-479C-A5AC-CBFBCF9D9923}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E98E978-A109-4877-B7E1-C08A51DF023A}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:AO3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{87442F5C-6CA8-4294-A2F6-242407230223}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{6882F068-361A-4F9B-AA2C-566D324A6A13}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{CFBD4DE3-5A65-4551-8E49-358DE0ED92D8}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{7170D95C-15D9-4A18-9134-89630A1FB129}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{3FB61444-E801-46E5-8F19-7D0BD53E1D9D}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{D7397C78-0A81-419D-9F07-A13069DCF711}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{01AB8101-E05B-4228-BBA1-E9F86E383310}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{ABDE8A96-C578-452B-ADEB-05F6221FF2B7}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{BBE5F582-668E-46C3-9C55-0AC480D0A7C7}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{D3E22C32-5DD3-430C-AF5E-0C4B7DC9C1DB}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{A64FA152-513C-4DCF-857B-2A06999CAE7B}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{56E86B53-9506-41AF-A07C-7B855DF690D0}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{6F1A15F9-0388-4DD8-BE29-B6B75839A5DA}" name="ChargeTime3"/>
-    <tableColumn id="11" xr3:uid="{9410A931-1ED2-4BA0-8A8A-6BB368D8E838}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{FDBAD85F-F1A4-4BD2-AA39-9F565ABEDB87}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{9992AD75-768D-4339-B67B-ADFC50B21C14}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{299FCE68-86D6-40D2-B183-CEDAD2F7C73C}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{AC60E78A-1CFA-483F-B2C9-2CD031DE70AF}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{04011221-9019-4E06-B857-F4A29F71C114}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{6D7EACB7-556C-42EC-83B6-E58B9ECFDA78}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{5458948C-22E6-4E6D-9841-3D9EF858641B}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{D719EB13-537D-4992-BF82-225D7D023165}" name="ChargeBounceCount4"/>
-    <tableColumn id="12" xr3:uid="{04BA7AB5-3A81-40BD-B88E-E1807F7F6F05}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{95CE5045-75B1-4880-9D24-D2FB6C71D0E4}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{7253AA29-9471-4D87-AB50-C76100367B0F}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{5CAD9C13-02EE-4450-9EDD-AD37C6623006}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{6D81DB12-A911-43AB-8CF7-1EF7E3531A2D}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{8E1B87BB-2749-48C6-9314-3A052346FB67}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{4A265E95-4F17-4F67-9232-A23FBA8C842B}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{C0D860B0-171A-4767-A996-93754E50B1A0}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{A1B12B28-892A-4982-8F4A-CB7A4BEFD1B8}" name="AtkDmgPer"/>
-    <tableColumn id="5" xr3:uid="{013C62ED-DCA9-408E-A713-EBB717CA4E3D}" name="#던지기 DPS">
+    <tableColumn id="1" xr3:uid="{1C5A85D1-7DA7-47E3-8B94-3BFBF4F9F21B}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{48240FB7-1F72-4F7B-818A-F8A7A3E12581}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{68C2F29E-C7E9-4A1E-BA77-78F29D9122DF}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{F5FD55C9-0D14-4508-9B6F-2C04444D2D52}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{E51D26FC-8EA2-468F-8676-8ED58310433A}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{AB4B5286-5394-4F3A-ACC9-8BFBA6661D3D}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{85B8F587-FE4B-4B4E-A57D-05E61CB9CB4C}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{5CD8ABF9-BB91-49DC-9A56-9EC1844D93C6}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{424167F0-D1F5-4499-9233-CDD18D40AC7A}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{CF7A64B8-1080-4DEA-AC8B-A69D2A27E6AB}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{5EC0DA5F-41B8-40AA-B51C-AE2139E5D88A}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{F085D3D2-C907-47B0-BD8E-8FBAC16F625D}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{30DE9772-D4C0-4EC0-9188-4B0648FC2134}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{D60E1457-253B-4222-B47C-59FF5050FEA6}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{4C83DFAE-3CEB-4778-8E36-EDE6C1309AC1}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{EED59BDA-A4B4-4BEF-BE5B-89F78C03A5F1}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{21ED1AA9-40CC-4848-B5C9-ADA0408742F5}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{2565F277-720C-4A67-9E97-F6FB8EF53EAB}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{AD35989C-9681-4F51-8EF0-BA110F5A5B02}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{15738953-D3E0-43C5-AF85-6467A9AC994D}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{7248D5CD-13DD-444C-8C7F-36A13A25480F}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{DE3AC7CC-D892-45DE-B77A-0372965C960A}" name="ChargeBounceCount4"/>
+    <tableColumn id="12" xr3:uid="{20C9DAA0-8B1E-43A4-BEFD-E0B1E5B87921}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{4E5629EB-1843-4FDC-8FDB-4AB7ED3AE8D6}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{4AF21F97-954B-4030-A85F-28B9895951CE}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{922ACCD6-4D50-4BC2-B7F1-B0304EA562F6}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{4EBF187C-8E8F-4380-BDBA-224B67DCFCD3}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{54BFE849-F129-4C98-9D77-FA8AF8AC53E1}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{A6442B8A-64D5-427F-BB1E-D74729C36599}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{1C364C86-CCDF-4E14-9022-160F356ACCE3}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{A64948C9-1C27-4DBA-AF60-5D8716340DCD}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{ED071ED8-9724-4311-B503-B56F0AB2C93C}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{F9DE310D-D90D-465B-A5F4-5DA9FD5E6D24}" name="#휘두르기 직접 공격 DPS">
+    <tableColumn id="32" xr3:uid="{89C8DB2F-6114-4C9D-A425-E38C394736AD}" name="#휘두르기 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{06727343-76FF-4C76-9018-CE40485FF282}" name="#차징1 직접 공격 DPS">
+    <tableColumn id="34" xr3:uid="{040C942D-691A-40D6-A10A-B41A9BDCBD1B}" name="#차징1 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{BC174FD9-42C1-4DAD-8D95-4D193472114D}" name="#차징2 직접 공격 DPS">
+    <tableColumn id="35" xr3:uid="{31A49FB0-9080-4D05-82C0-615BB3AEF22A}" name="#차징2 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{F70BAE73-0D4B-498B-8DDB-9280E4579B6D}" name="#차징3 직접 공격 DPS">
+    <tableColumn id="36" xr3:uid="{E429DD72-CEF7-4BDD-8494-A9622D9C341D}" name="#차징3 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{8217079D-65A2-4DE8-A23B-937D3387CF07}" name="#던진공 튕겨내기 DPS">
+    <tableColumn id="37" xr3:uid="{A0ED5AB5-FAF4-47D4-8DDB-FC7125C8BBAC}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{D4B30A6E-6027-415B-8405-374C34EA0A61}" name="#던진공 차징1 튕겨내기 DPS">
+    <tableColumn id="38" xr3:uid="{559FB6C1-D057-4847-93CC-90FE76C37D0D}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{5D444318-C616-42BB-8596-B0FC283D4991}" name="#던진공 차징2 튕겨내기 DPS3">
+    <tableColumn id="39" xr3:uid="{F1065BD9-4A90-45DD-AFD2-BDBE7976D07B}" name="#던진공 차징2 튕겨내기 DPS3">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{211126C9-E2D5-435D-B975-942C1B411B0A}" name="#던진공 차징3 튕겨내기 DPS4">
+    <tableColumn id="40" xr3:uid="{AA0B6B13-8620-4323-942D-9CBB11563C97}" name="#던진공 차징3 튕겨내기 DPS4">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
@@ -911,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8392062-21AB-4DB3-A74C-D805237182CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437F68A9-FE6A-4610-B204-081EC03845FD}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A99FCC4E-339A-4EF8-947A-C707D2BC255B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E345C7D-4ABE-4623-87DF-121B5E0D71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{513ADF9D-ABC9-4559-9751-354E8E2529D0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F86631C1-3FC4-433E-8983-867A7A9CD7D0}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{5CCBDFD7-2FFB-42DF-8A93-1A08E36F315D}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{CB5FBDC7-0E4C-495E-A887-12DD8BB33648}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -540,72 +540,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E98E978-A109-4877-B7E1-C08A51DF023A}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DF0BB32-7643-4E77-BED6-370EBE75F9BA}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:AO3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{1C5A85D1-7DA7-47E3-8B94-3BFBF4F9F21B}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{48240FB7-1F72-4F7B-818A-F8A7A3E12581}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{68C2F29E-C7E9-4A1E-BA77-78F29D9122DF}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{F5FD55C9-0D14-4508-9B6F-2C04444D2D52}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{E51D26FC-8EA2-468F-8676-8ED58310433A}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{AB4B5286-5394-4F3A-ACC9-8BFBA6661D3D}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{85B8F587-FE4B-4B4E-A57D-05E61CB9CB4C}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{5CD8ABF9-BB91-49DC-9A56-9EC1844D93C6}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{424167F0-D1F5-4499-9233-CDD18D40AC7A}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{CF7A64B8-1080-4DEA-AC8B-A69D2A27E6AB}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{5EC0DA5F-41B8-40AA-B51C-AE2139E5D88A}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{F085D3D2-C907-47B0-BD8E-8FBAC16F625D}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{30DE9772-D4C0-4EC0-9188-4B0648FC2134}" name="ChargeTime3"/>
-    <tableColumn id="11" xr3:uid="{D60E1457-253B-4222-B47C-59FF5050FEA6}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{4C83DFAE-3CEB-4778-8E36-EDE6C1309AC1}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{EED59BDA-A4B4-4BEF-BE5B-89F78C03A5F1}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{21ED1AA9-40CC-4848-B5C9-ADA0408742F5}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{2565F277-720C-4A67-9E97-F6FB8EF53EAB}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{AD35989C-9681-4F51-8EF0-BA110F5A5B02}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{15738953-D3E0-43C5-AF85-6467A9AC994D}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{7248D5CD-13DD-444C-8C7F-36A13A25480F}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{DE3AC7CC-D892-45DE-B77A-0372965C960A}" name="ChargeBounceCount4"/>
-    <tableColumn id="12" xr3:uid="{20C9DAA0-8B1E-43A4-BEFD-E0B1E5B87921}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{4E5629EB-1843-4FDC-8FDB-4AB7ED3AE8D6}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{4AF21F97-954B-4030-A85F-28B9895951CE}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{922ACCD6-4D50-4BC2-B7F1-B0304EA562F6}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{4EBF187C-8E8F-4380-BDBA-224B67DCFCD3}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{54BFE849-F129-4C98-9D77-FA8AF8AC53E1}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{A6442B8A-64D5-427F-BB1E-D74729C36599}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{1C364C86-CCDF-4E14-9022-160F356ACCE3}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{A64948C9-1C27-4DBA-AF60-5D8716340DCD}" name="AtkDmgPer"/>
-    <tableColumn id="5" xr3:uid="{ED071ED8-9724-4311-B503-B56F0AB2C93C}" name="#던지기 DPS">
+    <tableColumn id="1" xr3:uid="{B869A87F-7C0E-4B7C-AF10-59FF743E7CF3}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{D6BA97B2-F9FC-46A1-BDFE-DE2A1B5367B9}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C90335F6-08CA-449B-839B-6CB9A4D815C8}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{85C01D6D-E7C0-43D9-84A6-80FF93EC46C3}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{C77A0E3F-A5E7-4857-965E-ECA5499F7A10}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{86DABC54-008B-43E1-AD63-40C842B188FB}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{DF37A0DA-6C5D-4D6B-B431-274C9C043F48}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{AF3B8DA4-3BC3-4743-B20E-5EDAF06C48F1}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{D79283A1-6B67-4036-A425-301E10248827}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{96B87C73-7F1E-4832-90BD-8E90BE627303}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{2C576917-7764-4592-B637-A6449766EEBE}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{4B9BD302-20D2-4D45-8E53-3326429A3B2F}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{4F47968F-4156-4346-8AF9-E7F9D6CF8746}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{440B8254-8AA2-46BA-8EB3-7D1BBB647512}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{0F422109-D753-4F55-A615-0878333770EC}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{B27FFFBE-1DC0-4DCF-ADD1-570255A107AD}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{506D0E6B-E73E-41C4-BF7E-3637E3C5D03E}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{522C231F-E8FB-4C0E-8F44-CB882C9A4A99}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{7E73CA0E-7211-4586-AFDC-72727602F681}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{81A295EF-D473-4014-B559-41E02BD051B2}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{6CA10307-16FE-4415-BD89-BB535BBA6DCA}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{572B3A9B-EA26-4448-8CD9-7CEF4A069A98}" name="ChargeBounceCount4"/>
+    <tableColumn id="12" xr3:uid="{D30B1DE8-DE82-4A8D-9BC1-FF5C37CE8C11}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{EB09A41E-23E4-422D-B054-2407B17C38B7}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{B5DB7D63-8DB8-4773-86E6-7D2469BEED7F}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{440313BA-4E81-406B-9EA5-CAC216A6F1B0}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{96EE9E92-2BEE-46CB-9185-7BD5A12F1BA8}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{8EECB5C3-3800-4CF1-A513-FF59AD3143D1}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{A29153CC-198F-46D2-A1C8-DFC8AE6FBEBD}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{8DBC5BE1-660C-4832-A6D4-FA2F078CFE6A}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{292CF61D-1C73-4F2F-BB76-9800903DB0BA}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{DCACF3AF-FD5E-4381-BE74-7B5020F184B9}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{89C8DB2F-6114-4C9D-A425-E38C394736AD}" name="#휘두르기 직접 공격 DPS">
+    <tableColumn id="32" xr3:uid="{C90ACB16-D92F-4697-B5BD-B3AE73A096DE}" name="#휘두르기 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{040C942D-691A-40D6-A10A-B41A9BDCBD1B}" name="#차징1 직접 공격 DPS">
+    <tableColumn id="34" xr3:uid="{25C53914-37F8-48EB-955A-E5FF5ED433AB}" name="#차징1 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{31A49FB0-9080-4D05-82C0-615BB3AEF22A}" name="#차징2 직접 공격 DPS">
+    <tableColumn id="35" xr3:uid="{BE323FB8-3EA0-4BD1-8F86-36ABD65A50D2}" name="#차징2 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{E429DD72-CEF7-4BDD-8494-A9622D9C341D}" name="#차징3 직접 공격 DPS">
+    <tableColumn id="36" xr3:uid="{1290CA42-D52A-42BD-8680-73769546BF4A}" name="#차징3 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{A0ED5AB5-FAF4-47D4-8DDB-FC7125C8BBAC}" name="#던진공 튕겨내기 DPS">
+    <tableColumn id="37" xr3:uid="{C92ADEAE-5DC6-42E9-A463-64708F6E4A16}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{559FB6C1-D057-4847-93CC-90FE76C37D0D}" name="#던진공 차징1 튕겨내기 DPS">
+    <tableColumn id="38" xr3:uid="{472C17ED-BA7A-4FA8-B7AF-E20322645847}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{F1065BD9-4A90-45DD-AFD2-BDBE7976D07B}" name="#던진공 차징2 튕겨내기 DPS3">
+    <tableColumn id="39" xr3:uid="{05AA419B-2603-4F99-BC4D-CB819835EF30}" name="#던진공 차징2 튕겨내기 DPS3">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{AA0B6B13-8620-4323-942D-9CBB11563C97}" name="#던진공 차징3 튕겨내기 DPS4">
+    <tableColumn id="40" xr3:uid="{C4230FD8-7120-4605-8381-1F4834484350}" name="#던진공 차징3 튕겨내기 DPS4">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
@@ -911,14 +911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437F68A9-FE6A-4610-B204-081EC03845FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4AEE12-842C-4B06-9E8D-584C567A821A}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1176,7 +1176,7 @@
         <v>44</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>1.2</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -1265,47 +1265,47 @@
       <c r="AG3">
         <f>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</f>
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AH3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AI3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</f>
-        <v>0.73170731707317072</v>
+        <v>0.29702970297029702</v>
       </c>
       <c r="AJ3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</f>
-        <v>0.95238095238095233</v>
+        <v>0.39215686274509803</v>
       </c>
       <c r="AK3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</f>
-        <v>1.3953488372093024</v>
+        <v>0.58252427184466016</v>
       </c>
       <c r="AL3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</f>
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="AM3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</f>
-        <v>4.6082949308755765</v>
+        <v>1.9342359767891681</v>
       </c>
       <c r="AN3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</f>
-        <v>6.0810810810810816</v>
+        <v>2.5862068965517242</v>
       </c>
       <c r="AO3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</f>
-        <v>8.4801762114537453</v>
+        <v>3.6527514231499052</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E345C7D-4ABE-4623-87DF-121B5E0D71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F37D20D8-ED66-408F-939D-4B19BD17F711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F86631C1-3FC4-433E-8983-867A7A9CD7D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7680DCC4-3DA8-4CE7-BF77-B783047724A3}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{CB5FBDC7-0E4C-495E-A887-12DD8BB33648}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C981F68A-778D-4C22-AED8-A11B4E24A8E0}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -540,72 +540,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DF0BB32-7643-4E77-BED6-370EBE75F9BA}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17CD2ED4-AB74-4422-8FA5-70696811B1A6}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:AO3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{B869A87F-7C0E-4B7C-AF10-59FF743E7CF3}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{D6BA97B2-F9FC-46A1-BDFE-DE2A1B5367B9}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{C90335F6-08CA-449B-839B-6CB9A4D815C8}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{85C01D6D-E7C0-43D9-84A6-80FF93EC46C3}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{C77A0E3F-A5E7-4857-965E-ECA5499F7A10}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{86DABC54-008B-43E1-AD63-40C842B188FB}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{DF37A0DA-6C5D-4D6B-B431-274C9C043F48}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{AF3B8DA4-3BC3-4743-B20E-5EDAF06C48F1}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{D79283A1-6B67-4036-A425-301E10248827}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{96B87C73-7F1E-4832-90BD-8E90BE627303}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{2C576917-7764-4592-B637-A6449766EEBE}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{4B9BD302-20D2-4D45-8E53-3326429A3B2F}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{4F47968F-4156-4346-8AF9-E7F9D6CF8746}" name="ChargeTime3"/>
-    <tableColumn id="11" xr3:uid="{440B8254-8AA2-46BA-8EB3-7D1BBB647512}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{0F422109-D753-4F55-A615-0878333770EC}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{B27FFFBE-1DC0-4DCF-ADD1-570255A107AD}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{506D0E6B-E73E-41C4-BF7E-3637E3C5D03E}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{522C231F-E8FB-4C0E-8F44-CB882C9A4A99}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{7E73CA0E-7211-4586-AFDC-72727602F681}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{81A295EF-D473-4014-B559-41E02BD051B2}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{6CA10307-16FE-4415-BD89-BB535BBA6DCA}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{572B3A9B-EA26-4448-8CD9-7CEF4A069A98}" name="ChargeBounceCount4"/>
-    <tableColumn id="12" xr3:uid="{D30B1DE8-DE82-4A8D-9BC1-FF5C37CE8C11}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{EB09A41E-23E4-422D-B054-2407B17C38B7}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{B5DB7D63-8DB8-4773-86E6-7D2469BEED7F}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{440313BA-4E81-406B-9EA5-CAC216A6F1B0}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{96EE9E92-2BEE-46CB-9185-7BD5A12F1BA8}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{8EECB5C3-3800-4CF1-A513-FF59AD3143D1}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{A29153CC-198F-46D2-A1C8-DFC8AE6FBEBD}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{8DBC5BE1-660C-4832-A6D4-FA2F078CFE6A}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{292CF61D-1C73-4F2F-BB76-9800903DB0BA}" name="AtkDmgPer"/>
-    <tableColumn id="5" xr3:uid="{DCACF3AF-FD5E-4381-BE74-7B5020F184B9}" name="#던지기 DPS">
+    <tableColumn id="1" xr3:uid="{CBBFBB4D-C169-4A8B-9F59-30A4C94620D2}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{52069013-870F-4901-8F14-CF7CA54F1D1D}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{91772165-7DCE-49C9-8731-AA0F39CCA929}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{6FFA4BE5-D2C1-4661-B91F-927A5D37C4F3}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{1EE49555-7E1E-444E-AD42-B411ABB57024}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{4C805549-292A-4205-B023-1FCE07D50F1C}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{F8652179-9561-4FE4-80B4-9C2C6CDC74C9}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{BAF33FDF-ECCA-4642-A017-D19954DA74D9}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{5EE0FCC0-CFB8-4587-9416-69BEA0FEA17F}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{679DAA9A-BD12-4A16-8BF2-453CFE75641F}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{D5B0F0D3-5E8B-46DE-9C8B-0F31C4A34B47}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{DD42FD4C-B873-4F00-9670-7841F78B8AF2}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{DEB09714-7EF9-4D5B-95BF-1CEA599B2CFD}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{C0A0D7B5-5654-43F9-A3FF-A781E8FE3C0D}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{B175B66D-E5A4-4577-A1A3-28AB43D0608E}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{6CA1B73D-C671-4476-8EA5-2E8F8606D2DF}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{A1AC5B59-839E-4120-9DFE-96E5A695E842}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{A60E3320-F47F-4160-A18B-5AE5C6218B81}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{D5F595D0-48BB-40B4-9436-9A1801580C17}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{E1D715BC-8F7A-41F6-B24F-035703E84DCF}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{17A7E08D-B640-4D05-A16B-031737AE2370}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{1EAAF682-0A83-48FE-94E2-69040B6C8D95}" name="ChargeBounceCount4"/>
+    <tableColumn id="12" xr3:uid="{BF7CA13B-2146-4E71-8D94-66A250027014}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{FFF103C1-0B9B-46E2-973A-B525B4F23713}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{5B3BA9ED-EA8D-493D-9691-9D18C8EE85F8}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{B0DDB2F5-74FF-49A1-BFFB-2F699FA3A54A}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{B99C868C-9EC2-48FD-8368-1FCC15CF7979}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{10BF148B-5F0D-4C85-9347-E3612CD72BA3}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{6FA7047B-B3EC-496A-9A5F-C6C8C48C2F71}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{B5AD4F33-CD07-4E35-8B5E-456CCD343AF9}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{1C8FB4CC-91B4-4545-83D2-4FC5DB195A52}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{F272EA2E-5331-4DCD-B4F1-8F43DC145E1B}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{C90ACB16-D92F-4697-B5BD-B3AE73A096DE}" name="#휘두르기 직접 공격 DPS">
+    <tableColumn id="32" xr3:uid="{78981309-7D41-409A-9FC3-7A954458CBD5}" name="#휘두르기 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{25C53914-37F8-48EB-955A-E5FF5ED433AB}" name="#차징1 직접 공격 DPS">
+    <tableColumn id="34" xr3:uid="{095556EB-0E8B-4D9B-875A-1EA5E41AFE85}" name="#차징1 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{BE323FB8-3EA0-4BD1-8F86-36ABD65A50D2}" name="#차징2 직접 공격 DPS">
+    <tableColumn id="35" xr3:uid="{6AD554A2-48E9-4A7D-BCF3-CED5BE2A87BD}" name="#차징2 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{1290CA42-D52A-42BD-8680-73769546BF4A}" name="#차징3 직접 공격 DPS">
+    <tableColumn id="36" xr3:uid="{F202482F-1CAC-4CA2-BC48-D3878C01D790}" name="#차징3 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{C92ADEAE-5DC6-42E9-A463-64708F6E4A16}" name="#던진공 튕겨내기 DPS">
+    <tableColumn id="37" xr3:uid="{24E0ED1F-B52B-4F3E-A8CE-3AFBCAB16084}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{472C17ED-BA7A-4FA8-B7AF-E20322645847}" name="#던진공 차징1 튕겨내기 DPS">
+    <tableColumn id="38" xr3:uid="{A935AD16-4E63-4794-A870-D45E8F0A260A}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{05AA419B-2603-4F99-BC4D-CB819835EF30}" name="#던진공 차징2 튕겨내기 DPS3">
+    <tableColumn id="39" xr3:uid="{CEFF31AF-B451-4CFF-B9E3-2D54DCDFD6A6}" name="#던진공 차징2 튕겨내기 DPS3">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{C4230FD8-7120-4605-8381-1F4834484350}" name="#던진공 차징3 튕겨내기 DPS4">
+    <tableColumn id="40" xr3:uid="{EB49DE0E-911B-4B8A-B18E-DE31D674C37B}" name="#던진공 차징3 튕겨내기 DPS4">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
@@ -911,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4AEE12-842C-4B06-9E8D-584C567A821A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F0D3D5-EAEC-403F-935D-1310369D813C}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F37D20D8-ED66-408F-939D-4B19BD17F711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5678DEF4-08D7-41A1-9B67-05391D5CF620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7680DCC4-3DA8-4CE7-BF77-B783047724A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D09432DA-C6C8-454B-AC92-456AD8F68172}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C981F68A-778D-4C22-AED8-A11B4E24A8E0}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{FD5573D9-0542-43CC-BFF1-ACF5B7CCC2C5}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -540,72 +540,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17CD2ED4-AB74-4422-8FA5-70696811B1A6}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DE0A11A-9FC8-4115-BCB6-5631008F7BA4}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:AO3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{CBBFBB4D-C169-4A8B-9F59-30A4C94620D2}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{52069013-870F-4901-8F14-CF7CA54F1D1D}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{91772165-7DCE-49C9-8731-AA0F39CCA929}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{6FFA4BE5-D2C1-4661-B91F-927A5D37C4F3}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{1EE49555-7E1E-444E-AD42-B411ABB57024}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{4C805549-292A-4205-B023-1FCE07D50F1C}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{F8652179-9561-4FE4-80B4-9C2C6CDC74C9}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{BAF33FDF-ECCA-4642-A017-D19954DA74D9}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{5EE0FCC0-CFB8-4587-9416-69BEA0FEA17F}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{679DAA9A-BD12-4A16-8BF2-453CFE75641F}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{D5B0F0D3-5E8B-46DE-9C8B-0F31C4A34B47}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{DD42FD4C-B873-4F00-9670-7841F78B8AF2}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{DEB09714-7EF9-4D5B-95BF-1CEA599B2CFD}" name="ChargeTime3"/>
-    <tableColumn id="11" xr3:uid="{C0A0D7B5-5654-43F9-A3FF-A781E8FE3C0D}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{B175B66D-E5A4-4577-A1A3-28AB43D0608E}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{6CA1B73D-C671-4476-8EA5-2E8F8606D2DF}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{A1AC5B59-839E-4120-9DFE-96E5A695E842}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{A60E3320-F47F-4160-A18B-5AE5C6218B81}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{D5F595D0-48BB-40B4-9436-9A1801580C17}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{E1D715BC-8F7A-41F6-B24F-035703E84DCF}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{17A7E08D-B640-4D05-A16B-031737AE2370}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{1EAAF682-0A83-48FE-94E2-69040B6C8D95}" name="ChargeBounceCount4"/>
-    <tableColumn id="12" xr3:uid="{BF7CA13B-2146-4E71-8D94-66A250027014}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{FFF103C1-0B9B-46E2-973A-B525B4F23713}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{5B3BA9ED-EA8D-493D-9691-9D18C8EE85F8}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{B0DDB2F5-74FF-49A1-BFFB-2F699FA3A54A}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{B99C868C-9EC2-48FD-8368-1FCC15CF7979}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{10BF148B-5F0D-4C85-9347-E3612CD72BA3}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{6FA7047B-B3EC-496A-9A5F-C6C8C48C2F71}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{B5AD4F33-CD07-4E35-8B5E-456CCD343AF9}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{1C8FB4CC-91B4-4545-83D2-4FC5DB195A52}" name="AtkDmgPer"/>
-    <tableColumn id="5" xr3:uid="{F272EA2E-5331-4DCD-B4F1-8F43DC145E1B}" name="#던지기 DPS">
+    <tableColumn id="1" xr3:uid="{FC0597D5-44E5-4A46-B958-763A8040783F}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{A9590976-85DD-4B95-B973-F519402D8DFB}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{EF4F53A8-3780-40B8-BFEB-6143726D2C91}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{451AB3FF-FD69-4817-966B-B39AC3B03500}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{92CB753B-40DB-43B5-93A9-ACFBDBFC5471}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{B8F33327-F5D6-453D-A338-15B5A2F46FF8}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{E72105AA-A51B-45CE-914D-D3AC6E9ADCBB}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{8177BF8A-A135-49F7-98E5-AABECD82E47D}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{6BC29E8C-8EC4-4F44-B1C6-53B924FE0E1F}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{610FCEB5-9F78-4931-A727-A0B8A03982F8}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{35F84B8D-F0B5-4AF9-B3CF-ABF82A6A0312}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{AE733EDB-84DB-4B93-AC22-C81C6496AB35}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{5FEBDE7A-B9D9-43C2-A808-484BDF7C774A}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{F9844D36-0D34-4867-B64F-AFA40AC4063E}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{6E3F7A6F-ED60-4B74-ABB0-087B5CC225F9}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{7A4F54E2-F37B-4DDF-A5D6-28915DAB82FE}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{B962383A-61B8-4657-8A4F-0B9952B0617D}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{87085CD9-24C8-417B-95DE-870D32D526AF}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{3E416938-6039-4709-BF91-E41B66D3A6AF}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{61537776-2951-4B64-85E4-9E1A23FE0771}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{09C770D5-1ACF-4380-9A82-3BC3248E9ABA}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{F9FEED8C-BAB6-4E7B-A6A6-4C01627880F0}" name="ChargeBounceCount4"/>
+    <tableColumn id="12" xr3:uid="{8099D739-3239-4DF7-9B69-F02E1EEB76BF}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{4A38E221-9905-404B-839A-6647CB25EFE9}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{65163CE1-3D32-4F5E-ABE0-B747E2672CCB}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{E390292E-0466-4B33-A044-A67DEBD8C01D}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{966B3A58-9A98-437A-8BFA-A30000A9979F}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{C4A0FD04-A8AC-4B73-8DD9-C1130BE94246}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{A48A1986-0BF5-44C4-914A-E51AE7A6427F}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{E23E0847-D817-4FED-A277-65ED2FF08D2E}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{FC14841D-AEC7-4089-9166-151EA7364562}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{07B528FD-C81F-4A0A-9C1D-DC304D6F0286}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{78981309-7D41-409A-9FC3-7A954458CBD5}" name="#휘두르기 직접 공격 DPS">
+    <tableColumn id="32" xr3:uid="{D772E54D-8DEE-455D-AFF9-C4F584D4CC6C}" name="#휘두르기 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{095556EB-0E8B-4D9B-875A-1EA5E41AFE85}" name="#차징1 직접 공격 DPS">
+    <tableColumn id="34" xr3:uid="{FAA41288-0DFF-4345-8875-92C5D6CEC58F}" name="#차징1 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{6AD554A2-48E9-4A7D-BCF3-CED5BE2A87BD}" name="#차징2 직접 공격 DPS">
+    <tableColumn id="35" xr3:uid="{A28950C1-5FCF-48F8-BEA7-3BDFB97C96E4}" name="#차징2 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{F202482F-1CAC-4CA2-BC48-D3878C01D790}" name="#차징3 직접 공격 DPS">
+    <tableColumn id="36" xr3:uid="{CFC7D37F-2F3A-4D6C-B8D4-CCD6C1ADA072}" name="#차징3 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{24E0ED1F-B52B-4F3E-A8CE-3AFBCAB16084}" name="#던진공 튕겨내기 DPS">
+    <tableColumn id="37" xr3:uid="{3715E21C-1AD0-4381-9659-56945A2E1F7D}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{A935AD16-4E63-4794-A870-D45E8F0A260A}" name="#던진공 차징1 튕겨내기 DPS">
+    <tableColumn id="38" xr3:uid="{A8CF9C88-8A04-488B-A6AF-A3A4DDB264CF}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{CEFF31AF-B451-4CFF-B9E3-2D54DCDFD6A6}" name="#던진공 차징2 튕겨내기 DPS3">
+    <tableColumn id="39" xr3:uid="{0B1950C3-236E-4BE4-8EC3-F6175675E51D}" name="#던진공 차징2 튕겨내기 DPS3">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{EB49DE0E-911B-4B8A-B18E-DE31D674C37B}" name="#던진공 차징3 튕겨내기 DPS4">
+    <tableColumn id="40" xr3:uid="{D6109EBC-77AA-44B8-8B07-A0FA6AAC153B}" name="#던진공 차징3 튕겨내기 DPS4">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
@@ -911,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F0D3D5-EAEC-403F-935D-1310369D813C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C0824C-458F-42C1-8705-C5F353A5A30C}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5678DEF4-08D7-41A1-9B67-05391D5CF620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9DE4935-A723-4A0A-B59B-DBEFAA5000F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D09432DA-C6C8-454B-AC92-456AD8F68172}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68317861-10B9-4AE7-B02F-FC29C66BC36B}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{FD5573D9-0542-43CC-BFF1-ACF5B7CCC2C5}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{0A245125-6A69-4C8F-87E7-347F034E866A}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -540,72 +540,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DE0A11A-9FC8-4115-BCB6-5631008F7BA4}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD114F9-A5F7-429C-A225-47F79154E7C6}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:AO3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{FC0597D5-44E5-4A46-B958-763A8040783F}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{A9590976-85DD-4B95-B973-F519402D8DFB}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{EF4F53A8-3780-40B8-BFEB-6143726D2C91}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{451AB3FF-FD69-4817-966B-B39AC3B03500}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{92CB753B-40DB-43B5-93A9-ACFBDBFC5471}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{B8F33327-F5D6-453D-A338-15B5A2F46FF8}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{E72105AA-A51B-45CE-914D-D3AC6E9ADCBB}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{8177BF8A-A135-49F7-98E5-AABECD82E47D}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{6BC29E8C-8EC4-4F44-B1C6-53B924FE0E1F}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{610FCEB5-9F78-4931-A727-A0B8A03982F8}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{35F84B8D-F0B5-4AF9-B3CF-ABF82A6A0312}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{AE733EDB-84DB-4B93-AC22-C81C6496AB35}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{5FEBDE7A-B9D9-43C2-A808-484BDF7C774A}" name="ChargeTime3"/>
-    <tableColumn id="11" xr3:uid="{F9844D36-0D34-4867-B64F-AFA40AC4063E}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{6E3F7A6F-ED60-4B74-ABB0-087B5CC225F9}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{7A4F54E2-F37B-4DDF-A5D6-28915DAB82FE}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{B962383A-61B8-4657-8A4F-0B9952B0617D}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{87085CD9-24C8-417B-95DE-870D32D526AF}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{3E416938-6039-4709-BF91-E41B66D3A6AF}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{61537776-2951-4B64-85E4-9E1A23FE0771}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{09C770D5-1ACF-4380-9A82-3BC3248E9ABA}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{F9FEED8C-BAB6-4E7B-A6A6-4C01627880F0}" name="ChargeBounceCount4"/>
-    <tableColumn id="12" xr3:uid="{8099D739-3239-4DF7-9B69-F02E1EEB76BF}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{4A38E221-9905-404B-839A-6647CB25EFE9}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{65163CE1-3D32-4F5E-ABE0-B747E2672CCB}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{E390292E-0466-4B33-A044-A67DEBD8C01D}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{966B3A58-9A98-437A-8BFA-A30000A9979F}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{C4A0FD04-A8AC-4B73-8DD9-C1130BE94246}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{A48A1986-0BF5-44C4-914A-E51AE7A6427F}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{E23E0847-D817-4FED-A277-65ED2FF08D2E}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{FC14841D-AEC7-4089-9166-151EA7364562}" name="AtkDmgPer"/>
-    <tableColumn id="5" xr3:uid="{07B528FD-C81F-4A0A-9C1D-DC304D6F0286}" name="#던지기 DPS">
+    <tableColumn id="1" xr3:uid="{0F591044-9AC7-4B14-A283-E3924E7AC088}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{A9E65E66-0E05-4CC8-BFA7-426DFE64D4A6}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{D5C3030C-EB20-4FFF-8A1E-EB2F78F0CA04}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{EB2AC69B-6303-4CD2-8948-4756B9ACA3C3}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{3D9BBEF9-1C8A-4476-9C6F-27DABCA38560}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{E56F3E8E-4C06-420D-8745-195439D5C959}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{5E07E075-B77C-4375-BAA7-63467F29B354}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{C913B01A-0A29-41C3-B535-6F613CB2BCCC}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{DF3D62FB-CE13-444B-A238-D7AF51FC169F}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{81C30254-0DE8-42C7-807C-3966E8362A38}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{67712BDB-FBEB-4B83-AC10-B8FB7FEFF059}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{41824E64-9B94-4FD6-89E2-D2A9A785D92F}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{04144FC0-54F1-4718-A689-C5F81A92579A}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{91955463-FE92-4885-8988-838211A5A48D}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{69F054EE-93FC-45D5-B9FC-F9024F1866CB}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{4F4FA88B-103B-4FD9-95D8-6B10605A571F}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{7230C837-D150-42F2-B60B-ABEE5662569F}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{780A4B44-9BEA-4C67-8AB2-727E5974DB7D}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{B78DB205-3E4C-42ED-B15E-E5603A00C467}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{5FCCD8C9-365D-4066-A477-8D68DCEF9139}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{3F133ADE-FBBF-47EC-875A-DC062BCC0B87}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{F3C0F5AA-EF99-4905-B27F-71B943561FA7}" name="ChargeBounceCount4"/>
+    <tableColumn id="12" xr3:uid="{DB245200-C749-4C86-B53E-149C939F5934}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{BCDD9937-7039-4770-A9EA-8D21E9517421}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{3931FC00-74F5-41F7-ABCF-38CA8C9AF838}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{BE103E51-8967-45B4-A026-C3466145FBF4}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{FBF8498A-61F1-49F6-8105-6E12D06CA52E}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{F115E1D1-B41F-437F-A1BB-2C222FE1CE87}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{8645C657-4ED0-4E17-873F-2BED1A495D87}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{1835E824-C0B1-4B15-8B22-4A7201A6140D}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{923BB08F-D553-4222-ABCE-B7347A7F3A6E}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{7DC78B2C-42B1-4F55-A627-D4AEA87F102E}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{D772E54D-8DEE-455D-AFF9-C4F584D4CC6C}" name="#휘두르기 직접 공격 DPS">
+    <tableColumn id="32" xr3:uid="{A4E937C5-BBF7-4ACD-ABE9-41FAF40CB4C5}" name="#휘두르기 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{FAA41288-0DFF-4345-8875-92C5D6CEC58F}" name="#차징1 직접 공격 DPS">
+    <tableColumn id="34" xr3:uid="{751C4688-6CB7-4294-AA0A-E15AEDA36BDB}" name="#차징1 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{A28950C1-5FCF-48F8-BEA7-3BDFB97C96E4}" name="#차징2 직접 공격 DPS">
+    <tableColumn id="35" xr3:uid="{A256284A-2388-4871-BF39-803F552754A9}" name="#차징2 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{CFC7D37F-2F3A-4D6C-B8D4-CCD6C1ADA072}" name="#차징3 직접 공격 DPS">
+    <tableColumn id="36" xr3:uid="{5FCB9E84-7E7E-44E1-813F-63A811E3F0CA}" name="#차징3 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{3715E21C-1AD0-4381-9659-56945A2E1F7D}" name="#던진공 튕겨내기 DPS">
+    <tableColumn id="37" xr3:uid="{144C9DC2-9EBF-47FF-A9EA-A9E17FC15B48}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{A8CF9C88-8A04-488B-A6AF-A3A4DDB264CF}" name="#던진공 차징1 튕겨내기 DPS">
+    <tableColumn id="38" xr3:uid="{DD446174-7889-4BD9-BBE9-0D9FA5D7E304}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{0B1950C3-236E-4BE4-8EC3-F6175675E51D}" name="#던진공 차징2 튕겨내기 DPS3">
+    <tableColumn id="39" xr3:uid="{6FDD46BE-06DA-4DE8-A82F-FC52FB38AA24}" name="#던진공 차징2 튕겨내기 DPS3">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{D6109EBC-77AA-44B8-8B07-A0FA6AAC153B}" name="#던진공 차징3 튕겨내기 DPS4">
+    <tableColumn id="40" xr3:uid="{045A4E53-6947-4884-94A7-F98CC591AB3F}" name="#던진공 차징3 튕겨내기 DPS4">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
@@ -911,14 +911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C0824C-458F-42C1-8705-C5F353A5A30C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7C6316-257D-425B-A89A-5693E8E9C0A5}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1182,7 +1182,7 @@
         <v>1.2</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0.5</v>
       </c>
       <c r="J3">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K3">
         <v>120</v>
@@ -1212,16 +1212,16 @@
         <v>8</v>
       </c>
       <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>25</v>
+      </c>
+      <c r="R3">
         <v>30</v>
       </c>
-      <c r="Q3">
-        <v>50</v>
-      </c>
-      <c r="R3">
-        <v>70</v>
-      </c>
       <c r="S3">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="T3">
         <v>3</v>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9DE4935-A723-4A0A-B59B-DBEFAA5000F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E89802CA-CDAE-4D16-A97C-B24898F3427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68317861-10B9-4AE7-B02F-FC29C66BC36B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{608A7351-9401-42B2-9B80-CC6554A045DB}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,9 @@
   <si>
     <t>ChargeBounceCount4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReflectCorrection</t>
   </si>
   <si>
     <t>ChargeRigidDmg1</t>
@@ -475,7 +478,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{0A245125-6A69-4C8F-87E7-347F034E866A}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8D179957-4A36-4963-9A81-0D42A7CDB9DB}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -540,72 +543,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD114F9-A5F7-429C-A225-47F79154E7C6}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AO3" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B2:AO3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{0F591044-9AC7-4B14-A283-E3924E7AC088}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{A9E65E66-0E05-4CC8-BFA7-426DFE64D4A6}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{D5C3030C-EB20-4FFF-8A1E-EB2F78F0CA04}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{EB2AC69B-6303-4CD2-8948-4756B9ACA3C3}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{3D9BBEF9-1C8A-4476-9C6F-27DABCA38560}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{E56F3E8E-4C06-420D-8745-195439D5C959}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{5E07E075-B77C-4375-BAA7-63467F29B354}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{C913B01A-0A29-41C3-B535-6F613CB2BCCC}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{DF3D62FB-CE13-444B-A238-D7AF51FC169F}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{81C30254-0DE8-42C7-807C-3966E8362A38}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{67712BDB-FBEB-4B83-AC10-B8FB7FEFF059}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{41824E64-9B94-4FD6-89E2-D2A9A785D92F}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{04144FC0-54F1-4718-A689-C5F81A92579A}" name="ChargeTime3"/>
-    <tableColumn id="11" xr3:uid="{91955463-FE92-4885-8988-838211A5A48D}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{69F054EE-93FC-45D5-B9FC-F9024F1866CB}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{4F4FA88B-103B-4FD9-95D8-6B10605A571F}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{7230C837-D150-42F2-B60B-ABEE5662569F}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{780A4B44-9BEA-4C67-8AB2-727E5974DB7D}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{B78DB205-3E4C-42ED-B15E-E5603A00C467}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{5FCCD8C9-365D-4066-A477-8D68DCEF9139}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{3F133ADE-FBBF-47EC-875A-DC062BCC0B87}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{F3C0F5AA-EF99-4905-B27F-71B943561FA7}" name="ChargeBounceCount4"/>
-    <tableColumn id="12" xr3:uid="{DB245200-C749-4C86-B53E-149C939F5934}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{BCDD9937-7039-4770-A9EA-8D21E9517421}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{3931FC00-74F5-41F7-ABCF-38CA8C9AF838}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{BE103E51-8967-45B4-A026-C3466145FBF4}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{FBF8498A-61F1-49F6-8105-6E12D06CA52E}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{F115E1D1-B41F-437F-A1BB-2C222FE1CE87}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{8645C657-4ED0-4E17-873F-2BED1A495D87}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{1835E824-C0B1-4B15-8B22-4A7201A6140D}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{923BB08F-D553-4222-ABCE-B7347A7F3A6E}" name="AtkDmgPer"/>
-    <tableColumn id="5" xr3:uid="{7DC78B2C-42B1-4F55-A627-D4AEA87F102E}" name="#던지기 DPS">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2141F1D5-1D7C-4935-B5A1-1A5B30D53BF2}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AP3" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B2:AP3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="41">
+    <tableColumn id="1" xr3:uid="{24B37171-01D2-47D3-9090-949F7C294129}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{C04F9AD8-C199-4A6B-9B74-32C12F2945A2}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5C12927D-939A-49DC-B5A4-5F76BB7C9BCE}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{8B32B365-9748-40EE-9012-B80B110B2D5B}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{35C10DA8-86DD-4871-85D4-0E657A3F1C8B}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{B4216EE2-5B24-417C-8A5B-7E9510B4FB26}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{4858F566-1786-496D-A277-9FDA1DE6CA56}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{4E8B4906-B38B-4816-B975-19C34BD8868F}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{8B164BAF-97AC-46FC-8C61-A2CAB2E9D901}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{8667F4EA-D60B-4F92-818E-770C142EABD5}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{60C66671-EEB2-4850-8157-197C94C2E561}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{83404AAA-3311-4C19-ABC7-9FBFC495D6E6}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{346C3A9A-09D0-48F1-9A37-9932AD6C6F18}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{8056F3AE-6268-462C-9E8D-B3F58E1FEF1A}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{7C5E5427-E44B-4B7D-9F24-108696783466}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{AE317184-B7AD-4A11-AB9A-684E46CCD0DF}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{B8BA7BC6-4EE7-4581-9581-2B146277C86D}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{9F804371-2AA6-4E83-AB27-873C9DE489C3}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{D02FC5E1-A5FB-44E1-B9A7-DE22CA1F8C47}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{AC2CEF8C-ADA2-4BE8-A437-634E40A67D09}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{B86F287D-9E2D-4C8D-8655-059F8D07984A}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{4AF43E64-3178-46BD-A863-C2C03EAE1668}" name="ChargeBounceCount4"/>
+    <tableColumn id="42" xr3:uid="{9919577A-0BDB-4DE7-A529-EA3EC5AB40B8}" name="ReflectCorrection"/>
+    <tableColumn id="12" xr3:uid="{0A7383E9-C58A-48D8-A08A-8825AC59DA79}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{4FFB9A68-B67D-42B4-9DF7-094428B34EFE}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{535427B9-567F-43F6-B487-838F4ECE04E6}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{C9017915-7889-4233-AFE4-395BC4B9FEE2}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{53DDCA71-B95C-4C3B-8A79-6BBE6FC4BB7B}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{E399A50B-E338-4FF9-A7BD-99AF84A97228}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{627E24E2-F7EC-4C4E-83E9-A49CC035E8EE}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{2A726D20-A557-4275-8A9B-71137315C326}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{4DF15DE0-45A7-406B-ABC0-66E65D8144E2}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{B821E3F5-ED37-4A2B-8A41-36EDE7855B71}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{A4E937C5-BBF7-4ACD-ABE9-41FAF40CB4C5}" name="#휘두르기 직접 공격 DPS">
+    <tableColumn id="32" xr3:uid="{2DA10DF0-058F-499F-8724-52F2708E564E}" name="#휘두르기 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{751C4688-6CB7-4294-AA0A-E15AEDA36BDB}" name="#차징1 직접 공격 DPS">
+    <tableColumn id="34" xr3:uid="{01F3240E-87F5-4DAF-8CE2-1F26E5D96C14}" name="#차징1 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{A256284A-2388-4871-BF39-803F552754A9}" name="#차징2 직접 공격 DPS">
+    <tableColumn id="35" xr3:uid="{D0B3DC81-F41B-41F3-AB77-CC9F48753F90}" name="#차징2 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{5FCB9E84-7E7E-44E1-813F-63A811E3F0CA}" name="#차징3 직접 공격 DPS">
+    <tableColumn id="36" xr3:uid="{0FA178A0-E59D-45AE-B14E-063AD7AEF1CF}" name="#차징3 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{144C9DC2-9EBF-47FF-A9EA-A9E17FC15B48}" name="#던진공 튕겨내기 DPS">
+    <tableColumn id="37" xr3:uid="{2E38C912-F228-450B-98FC-DA785D31F917}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{DD446174-7889-4BD9-BBE9-0D9FA5D7E304}" name="#던진공 차징1 튕겨내기 DPS">
+    <tableColumn id="38" xr3:uid="{7D2837F8-3113-49F4-B1EA-6287EDEE7A64}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{6FDD46BE-06DA-4DE8-A82F-FC52FB38AA24}" name="#던진공 차징2 튕겨내기 DPS3">
+    <tableColumn id="39" xr3:uid="{079B22AE-B19A-4C8D-8FC2-EFC341F4E907}" name="#던진공 차징2 튕겨내기 DPS3">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{045A4E53-6947-4884-94A7-F98CC591AB3F}" name="#던진공 차징3 튕겨내기 DPS4">
+    <tableColumn id="40" xr3:uid="{EB427C0D-3D72-475E-90EF-7F689931CEBA}" name="#던진공 차징3 튕겨내기 DPS4">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
@@ -911,14 +915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7C6316-257D-425B-A89A-5693E8E9C0A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBCEA06-1A70-4BF7-9323-FAFA6EF5E572}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:AO3"/>
+  <dimension ref="B1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -937,18 +941,19 @@
     <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="20.25" bestFit="1" customWidth="1"/>
     <col min="20" max="23" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17" customWidth="1"/>
-    <col min="34" max="34" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.125" customWidth="1"/>
+    <col min="25" max="28" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17" customWidth="1"/>
+    <col min="35" max="35" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41">
+    <row r="1" spans="2:42">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1015,9 +1020,6 @@
       <c r="W1" t="s">
         <v>0</v>
       </c>
-      <c r="X1" t="s">
-        <v>0</v>
-      </c>
       <c r="Y1" t="s">
         <v>0</v>
       </c>
@@ -1042,11 +1044,14 @@
       <c r="AF1" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:41">
+    <row r="2" spans="2:42">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1113,7 +1118,7 @@
       <c r="W2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="Y2" s="6" t="s">
@@ -1137,10 +1142,10 @@
       <c r="AE2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="AH2" s="2" t="s">
@@ -1161,19 +1166,22 @@
       <c r="AM2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AO2" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="AP2" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="2:41">
+    <row r="3" spans="2:42">
       <c r="B3">
         <v>200</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -1239,69 +1247,72 @@
         <v>10</v>
       </c>
       <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
         <v>15</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>20</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>30</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>10</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>15</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>20</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>30</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <f>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</f>
         <v>0.5</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</f>
         <v>0.2</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</f>
         <v>0.29702970297029702</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</f>
         <v>0.39215686274509803</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</f>
         <v>0.58252427184466016</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</f>
         <v>3.7</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</f>
         <v>1.9342359767891681</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</f>
         <v>2.5862068965517242</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</f>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matiy\OneDrive\Desktop\Unity\QT_Proto\_GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E89802CA-CDAE-4D16-A97C-B24898F3427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D14EF-D311-48EA-84B0-F10E5135A6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{608A7351-9401-42B2-9B80-CC6554A045DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{608A7351-9401-42B2-9B80-CC6554A045DB}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -519,6 +519,7 @@
       <sheetName val="ItemEffectGameData"/>
       <sheetName val="ItemResourceGameData"/>
       <sheetName val="LocaleGameData"/>
+      <sheetName val="_QT_Develop_Table"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -537,6 +538,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -921,8 +923,8 @@
   </sheetPr>
   <dimension ref="B1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1184,7 +1186,7 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1.2</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -1273,50 +1275,50 @@
       <c r="AG3">
         <v>1</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="e">
         <f>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</f>
-        <v>0.5</v>
+        <v>#REF!</v>
       </c>
       <c r="AI3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</f>
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="AJ3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</f>
-        <v>0.29702970297029702</v>
+        <v>15</v>
       </c>
       <c r="AK3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</f>
-        <v>0.39215686274509803</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="AL3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</f>
-        <v>0.58252427184466016</v>
-      </c>
-      <c r="AM3">
+        <v>15</v>
+      </c>
+      <c r="AM3" t="e">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</f>
-        <v>3.7</v>
-      </c>
-      <c r="AN3">
+        <v>#REF!</v>
+      </c>
+      <c r="AN3" t="e">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</f>
-        <v>1.9342359767891681</v>
-      </c>
-      <c r="AO3">
+        <v>#REF!</v>
+      </c>
+      <c r="AO3" t="e">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</f>
-        <v>2.5862068965517242</v>
-      </c>
-      <c r="AP3">
+        <v>#REF!</v>
+      </c>
+      <c r="AP3" t="e">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</f>
-        <v>3.6527514231499052</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matiy\OneDrive\Desktop\Unity\QT_Proto\_GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D14EF-D311-48EA-84B0-F10E5135A6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6143EE-7A60-40F7-A033-6D0097E0928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{608A7351-9401-42B2-9B80-CC6554A045DB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0596526-167F-426C-B471-F6E76B35A0D9}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,7 @@
   </si>
   <si>
     <t>ReflectCorrection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ChargeRigidDmg1</t>
@@ -478,7 +479,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8D179957-4A36-4963-9A81-0D42A7CDB9DB}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{2BD51174-1196-4F13-BB02-F974DD673CCD}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -519,7 +520,6 @@
       <sheetName val="ItemEffectGameData"/>
       <sheetName val="ItemResourceGameData"/>
       <sheetName val="LocaleGameData"/>
-      <sheetName val="_QT_Develop_Table"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -538,80 +538,79 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2141F1D5-1D7C-4935-B5A1-1A5B30D53BF2}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AP3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{726B0063-1009-4D05-82A1-F6CBC742D20C}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AP3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:AP3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="41">
-    <tableColumn id="1" xr3:uid="{24B37171-01D2-47D3-9090-949F7C294129}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{C04F9AD8-C199-4A6B-9B74-32C12F2945A2}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{5C12927D-939A-49DC-B5A4-5F76BB7C9BCE}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{8B32B365-9748-40EE-9012-B80B110B2D5B}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{35C10DA8-86DD-4871-85D4-0E657A3F1C8B}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{B4216EE2-5B24-417C-8A5B-7E9510B4FB26}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{4858F566-1786-496D-A277-9FDA1DE6CA56}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{4E8B4906-B38B-4816-B975-19C34BD8868F}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{8B164BAF-97AC-46FC-8C61-A2CAB2E9D901}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{8667F4EA-D60B-4F92-818E-770C142EABD5}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{60C66671-EEB2-4850-8157-197C94C2E561}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{83404AAA-3311-4C19-ABC7-9FBFC495D6E6}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{346C3A9A-09D0-48F1-9A37-9932AD6C6F18}" name="ChargeTime3"/>
-    <tableColumn id="11" xr3:uid="{8056F3AE-6268-462C-9E8D-B3F58E1FEF1A}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{7C5E5427-E44B-4B7D-9F24-108696783466}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{AE317184-B7AD-4A11-AB9A-684E46CCD0DF}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{B8BA7BC6-4EE7-4581-9581-2B146277C86D}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{9F804371-2AA6-4E83-AB27-873C9DE489C3}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{D02FC5E1-A5FB-44E1-B9A7-DE22CA1F8C47}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{AC2CEF8C-ADA2-4BE8-A437-634E40A67D09}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{B86F287D-9E2D-4C8D-8655-059F8D07984A}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{4AF43E64-3178-46BD-A863-C2C03EAE1668}" name="ChargeBounceCount4"/>
-    <tableColumn id="42" xr3:uid="{9919577A-0BDB-4DE7-A529-EA3EC5AB40B8}" name="ReflectCorrection"/>
-    <tableColumn id="12" xr3:uid="{0A7383E9-C58A-48D8-A08A-8825AC59DA79}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{4FFB9A68-B67D-42B4-9DF7-094428B34EFE}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{535427B9-567F-43F6-B487-838F4ECE04E6}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{C9017915-7889-4233-AFE4-395BC4B9FEE2}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{53DDCA71-B95C-4C3B-8A79-6BBE6FC4BB7B}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{E399A50B-E338-4FF9-A7BD-99AF84A97228}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{627E24E2-F7EC-4C4E-83E9-A49CC035E8EE}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{2A726D20-A557-4275-8A9B-71137315C326}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{4DF15DE0-45A7-406B-ABC0-66E65D8144E2}" name="AtkDmgPer"/>
-    <tableColumn id="5" xr3:uid="{B821E3F5-ED37-4A2B-8A41-36EDE7855B71}" name="#던지기 DPS">
+    <tableColumn id="1" xr3:uid="{35D6793D-179C-4D52-8FF3-C8CCA1781451}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{C63551DC-BC3D-424C-A620-78EEAD57BA0A}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{05BCEA0D-D6B0-42B6-BC09-78C160BEA970}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{90B8577C-4E7A-497A-BFD6-A67C497A6D89}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{75EA578F-DEF3-45D7-92A5-F6CD63C26037}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{F590703A-A008-48C3-9CB2-15B7A11EBADC}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{C63DAA54-EB7F-4F9A-AF9B-A50EF0EE92A3}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{BA0BDEB3-C013-4672-BA25-BEFD8F96599D}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{F11A265D-364A-4364-B20D-B41869D33627}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{531BE544-A783-49ED-A251-BED00C05E040}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{5295CB14-9D0F-4F68-94BE-B02107F1C983}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{F3ABF4DD-78D4-4466-9FC9-9971AA498707}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{FFF8AACE-BBB2-4BE2-9B80-F62895C61984}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{79C25BED-0CCB-41E8-827A-2356EE719C69}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{1CC35455-0047-4F03-BA3C-E0F2A12927D5}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{2F119F6D-149D-4D71-B29D-8F84255F395D}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{23048477-A368-483B-BD6C-A52C14E9A346}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{1714116A-5522-4E4C-AFC1-D945142F47D2}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{CAA0859A-D2BA-4C38-A462-C6FC94E5B07A}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{98709793-B67F-4943-824F-67A9C17EF872}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{8B6F56B0-D1BA-447C-9250-FEDBAC93CEDE}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{ACCB6844-8106-4E44-A4BE-2DA6B89BA8D4}" name="ChargeBounceCount4"/>
+    <tableColumn id="41" xr3:uid="{56E0E40F-743D-4500-9460-92887A46856A}" name="ReflectCorrection"/>
+    <tableColumn id="12" xr3:uid="{8FD3B896-FD8E-4701-A1E7-B45DD5FB4AD0}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{23D1B54D-EDB5-4F6B-9722-07C0DA1C2B12}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{BE654AF9-7B02-4845-A943-63B4E6CB42C4}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{4C720BF0-F634-4EF6-AB91-05AF83946B64}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{C96DD500-D03A-4FF2-B04C-366914E41F3A}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{BFAE10B2-A36F-4D38-A626-3FE8EDCEA87B}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{FF69CB72-9A37-41CF-8FF2-0B1851CF06CD}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{FB8F76D7-B0D7-47EF-9F27-7D8E00348148}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{D34B3F86-D935-498D-A8DC-6F7439B89432}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{0EB314DC-A0F4-4443-BD33-CEB1CDB04794}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{2DA10DF0-058F-499F-8724-52F2708E564E}" name="#휘두르기 직접 공격 DPS">
+    <tableColumn id="32" xr3:uid="{94BF3052-6496-48AA-BC89-59A5BBEF4BAD}" name="#휘두르기 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{01F3240E-87F5-4DAF-8CE2-1F26E5D96C14}" name="#차징1 직접 공격 DPS">
+    <tableColumn id="34" xr3:uid="{661EC6D9-C275-4E54-AC28-C707F54AA4F6}" name="#차징1 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{D0B3DC81-F41B-41F3-AB77-CC9F48753F90}" name="#차징2 직접 공격 DPS">
+    <tableColumn id="35" xr3:uid="{645D7B4B-9C95-43C8-B77C-8E6DC44A1135}" name="#차징2 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{0FA178A0-E59D-45AE-B14E-063AD7AEF1CF}" name="#차징3 직접 공격 DPS">
+    <tableColumn id="36" xr3:uid="{F4B3384C-5DCD-4AF7-921E-F995E4DF4DEA}" name="#차징3 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{2E38C912-F228-450B-98FC-DA785D31F917}" name="#던진공 튕겨내기 DPS">
+    <tableColumn id="37" xr3:uid="{237C2507-2A5D-4656-8BD9-578DE75163E8}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{7D2837F8-3113-49F4-B1EA-6287EDEE7A64}" name="#던진공 차징1 튕겨내기 DPS">
+    <tableColumn id="38" xr3:uid="{F4E42C22-CFFB-4F0C-93A0-3170B7BCF425}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{079B22AE-B19A-4C8D-8FC2-EFC341F4E907}" name="#던진공 차징2 튕겨내기 DPS3">
+    <tableColumn id="39" xr3:uid="{75FDB248-F6E6-4D1A-9FB1-CA77F4795D46}" name="#던진공 차징2 튕겨내기 DPS3">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{EB427C0D-3D72-475E-90EF-7F689931CEBA}" name="#던진공 차징3 튕겨내기 DPS4">
+    <tableColumn id="40" xr3:uid="{52D24320-A0B8-4B6A-B00C-05ADB8A277B6}" name="#던진공 차징3 튕겨내기 DPS4">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
@@ -917,14 +916,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBCEA06-1A70-4BF7-9323-FAFA6EF5E572}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DB0DED-DBC6-4176-A0E6-519208274F94}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1022,6 +1021,9 @@
       <c r="W1" t="s">
         <v>0</v>
       </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
       <c r="Y1" t="s">
         <v>0</v>
       </c>
@@ -1275,10 +1277,10 @@
       <c r="AG3">
         <v>1</v>
       </c>
-      <c r="AH3" t="e">
+      <c r="AH3">
         <f>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</f>
-        <v>#REF!</v>
+        <v>25</v>
       </c>
       <c r="AI3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</f>
@@ -1296,29 +1298,29 @@
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</f>
         <v>15</v>
       </c>
-      <c r="AM3" t="e">
+      <c r="AM3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AN3" t="e">
+        <v>73</v>
+      </c>
+      <c r="AN3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO3" t="e">
+        <v>45.454545454545453</v>
+      </c>
+      <c r="AO3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP3" t="e">
+        <v>49.999999999999993</v>
+      </c>
+      <c r="AP3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</f>
-        <v>#REF!</v>
+        <v>60.15625</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6143EE-7A60-40F7-A033-6D0097E0928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FD068D1-5B52-4B48-ADD0-A9EC1B43D986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0596526-167F-426C-B471-F6E76B35A0D9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39E2228B-812F-4668-A57C-C24317BD7815}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{2BD51174-1196-4F13-BB02-F974DD673CCD}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{ED3D70F4-AEFF-4218-A15C-BF5C99FB4E39}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -544,73 +544,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{726B0063-1009-4D05-82A1-F6CBC742D20C}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AP3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3122D3EB-B71C-432A-ACFF-CF76BA9619FC}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AP3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:AP3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="41">
-    <tableColumn id="1" xr3:uid="{35D6793D-179C-4D52-8FF3-C8CCA1781451}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{C63551DC-BC3D-424C-A620-78EEAD57BA0A}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{05BCEA0D-D6B0-42B6-BC09-78C160BEA970}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{90B8577C-4E7A-497A-BFD6-A67C497A6D89}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{75EA578F-DEF3-45D7-92A5-F6CD63C26037}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{F590703A-A008-48C3-9CB2-15B7A11EBADC}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{C63DAA54-EB7F-4F9A-AF9B-A50EF0EE92A3}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{BA0BDEB3-C013-4672-BA25-BEFD8F96599D}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{F11A265D-364A-4364-B20D-B41869D33627}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{531BE544-A783-49ED-A251-BED00C05E040}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{5295CB14-9D0F-4F68-94BE-B02107F1C983}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{F3ABF4DD-78D4-4466-9FC9-9971AA498707}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{FFF8AACE-BBB2-4BE2-9B80-F62895C61984}" name="ChargeTime3"/>
-    <tableColumn id="11" xr3:uid="{79C25BED-0CCB-41E8-827A-2356EE719C69}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{1CC35455-0047-4F03-BA3C-E0F2A12927D5}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{2F119F6D-149D-4D71-B29D-8F84255F395D}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{23048477-A368-483B-BD6C-A52C14E9A346}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{1714116A-5522-4E4C-AFC1-D945142F47D2}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{CAA0859A-D2BA-4C38-A462-C6FC94E5B07A}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{98709793-B67F-4943-824F-67A9C17EF872}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{8B6F56B0-D1BA-447C-9250-FEDBAC93CEDE}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{ACCB6844-8106-4E44-A4BE-2DA6B89BA8D4}" name="ChargeBounceCount4"/>
-    <tableColumn id="41" xr3:uid="{56E0E40F-743D-4500-9460-92887A46856A}" name="ReflectCorrection"/>
-    <tableColumn id="12" xr3:uid="{8FD3B896-FD8E-4701-A1E7-B45DD5FB4AD0}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{23D1B54D-EDB5-4F6B-9722-07C0DA1C2B12}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{BE654AF9-7B02-4845-A943-63B4E6CB42C4}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{4C720BF0-F634-4EF6-AB91-05AF83946B64}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{C96DD500-D03A-4FF2-B04C-366914E41F3A}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{BFAE10B2-A36F-4D38-A626-3FE8EDCEA87B}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{FF69CB72-9A37-41CF-8FF2-0B1851CF06CD}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{FB8F76D7-B0D7-47EF-9F27-7D8E00348148}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{D34B3F86-D935-498D-A8DC-6F7439B89432}" name="AtkDmgPer"/>
-    <tableColumn id="5" xr3:uid="{0EB314DC-A0F4-4443-BD33-CEB1CDB04794}" name="#던지기 DPS">
+    <tableColumn id="1" xr3:uid="{81B819E0-44D5-4AF8-B168-D475DE4F7655}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{36F4E923-88E1-4FA4-9CE3-00E3B3C217CD}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{DBEBAA9E-2FD8-4D3D-9B42-75C9CD6CFA88}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{139AE436-F079-47FE-BBAE-9E68612B58CC}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{B61E7BD6-04E4-4BCB-91F0-68CD895D28ED}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{C196184E-A0C6-4CD6-B357-65E502482EB4}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{12A51443-656C-4654-A283-E879437861AB}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{231FAC29-E9D5-4C8F-88B8-04B59411A171}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{A6FD51F2-63D2-4644-BC4C-56B82D627A34}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{9CB59F99-7CCF-46C6-AD2C-176CE7B226AF}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{E7855F19-148C-4A66-ABDF-7F31B6051AD3}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{460851AE-15AD-40E2-B6F4-DECCE6D1F211}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{1B2EFE06-C0E5-4770-A0CA-67DA6FABB5C8}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{2BE2DC5A-D513-49BE-B9E3-29EC7AAE0AEC}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{F8D225F6-970B-47AC-B728-9E72FCF5B7E9}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{40C873BA-DCE6-4A4E-836F-02A9DC3F4F31}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{67AF3783-31ED-49ED-B72C-ACDF359DFF6A}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{FEC8B050-6FB7-4185-AAB8-F45017204E37}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{910E43C7-407D-4356-9DC8-324DC72D6B38}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{9703A44D-4EDF-4724-A627-116DB1765179}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{669CDEDE-1C64-49F7-9213-07479D863268}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{A312B24F-C645-41C0-B581-F37E336617B8}" name="ChargeBounceCount4"/>
+    <tableColumn id="41" xr3:uid="{A0D9E89B-B1AE-4E96-ACF5-E46162B6A28F}" name="ReflectCorrection"/>
+    <tableColumn id="12" xr3:uid="{FC518C04-15F0-4AD6-9FAB-0B349805C4D4}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{3AAD5304-FE75-4A84-B277-9F03B2E243C4}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{E062A665-A236-4B26-B040-F5CAF6B334C4}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{B5E138F3-0FC3-4112-93E8-75249CE4FBF5}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{A4C007B5-D490-4BEB-979B-6EA2DC1D442A}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{08416E55-8150-4426-8533-2CD9208C3342}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{90DCE779-D5E6-489B-B3BD-0BD66D29DC16}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{C8E5C01E-87E5-4B34-986D-2EC48D6AFA45}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{B457344C-13BD-41DA-B557-C687A7F3387B}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{A5C519C0-CF4C-4FC9-87D3-721B2E134E0E}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{94BF3052-6496-48AA-BC89-59A5BBEF4BAD}" name="#휘두르기 직접 공격 DPS">
+    <tableColumn id="32" xr3:uid="{97E6D51F-6542-4301-AF2C-9172A5BF14FC}" name="#휘두르기 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{661EC6D9-C275-4E54-AC28-C707F54AA4F6}" name="#차징1 직접 공격 DPS">
+    <tableColumn id="34" xr3:uid="{AC44526B-A4E1-4CA1-B08E-9DDC0651B7E9}" name="#차징1 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{645D7B4B-9C95-43C8-B77C-8E6DC44A1135}" name="#차징2 직접 공격 DPS">
+    <tableColumn id="35" xr3:uid="{BD421461-65E6-48B9-BEB0-14075DB4A384}" name="#차징2 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{F4B3384C-5DCD-4AF7-921E-F995E4DF4DEA}" name="#차징3 직접 공격 DPS">
+    <tableColumn id="36" xr3:uid="{21A51F1D-C768-42EE-B220-6C0E4681F64A}" name="#차징3 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{237C2507-2A5D-4656-8BD9-578DE75163E8}" name="#던진공 튕겨내기 DPS">
+    <tableColumn id="37" xr3:uid="{46DE00AD-1C4B-4A88-8B31-9036F77BDCD5}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{F4E42C22-CFFB-4F0C-93A0-3170B7BCF425}" name="#던진공 차징1 튕겨내기 DPS">
+    <tableColumn id="38" xr3:uid="{E37A3DA8-84CB-454E-9F94-48CF73DD2162}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{75FDB248-F6E6-4D1A-9FB1-CA77F4795D46}" name="#던진공 차징2 튕겨내기 DPS3">
+    <tableColumn id="39" xr3:uid="{E7F09E20-5EBF-4236-86A2-883C637E11CD}" name="#던진공 차징2 튕겨내기 DPS3">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{52D24320-A0B8-4B6A-B00C-05ADB8A277B6}" name="#던진공 차징3 튕겨내기 DPS4">
+    <tableColumn id="40" xr3:uid="{7418FE77-5D26-4E89-B097-17EB6BDCE90B}" name="#던진공 차징3 튕겨내기 DPS4">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
@@ -916,7 +916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DB0DED-DBC6-4176-A0E6-519208274F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BE48E4-C6E2-4C31-84F8-8091FD5DE91E}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FD068D1-5B52-4B48-ADD0-A9EC1B43D986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DDECC17-8F76-4B5B-81C5-9E816ADD8025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39E2228B-812F-4668-A57C-C24317BD7815}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBBD79E6-19B9-4945-9EBD-065199D90117}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{ED3D70F4-AEFF-4218-A15C-BF5C99FB4E39}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C7B72399-3CB3-49FB-9CC4-BCA51649FF34}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
@@ -544,73 +544,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3122D3EB-B71C-432A-ACFF-CF76BA9619FC}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AP3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E427380-2E33-47A7-9CF8-020AE00DBC14}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AP3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:AP3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="41">
-    <tableColumn id="1" xr3:uid="{81B819E0-44D5-4AF8-B168-D475DE4F7655}" name="Index"/>
-    <tableColumn id="20" xr3:uid="{36F4E923-88E1-4FA4-9CE3-00E3B3C217CD}" name="#설명" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{DBEBAA9E-2FD8-4D3D-9B42-75C9CD6CFA88}" name="ThrowCooldown" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{139AE436-F079-47FE-BBAE-9E68612B58CC}" name="ThrowAfterDelay" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{B61E7BD6-04E4-4BCB-91F0-68CD895D28ED}" name="ThrowSpd"/>
-    <tableColumn id="31" xr3:uid="{C196184E-A0C6-4CD6-B357-65E502482EB4}" name="ThrowBounceCount"/>
-    <tableColumn id="4" xr3:uid="{12A51443-656C-4654-A283-E879437861AB}" name="SwingCooldown" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{231FAC29-E9D5-4C8F-88B8-04B59411A171}" name="SwingAfterDelay"/>
-    <tableColumn id="2" xr3:uid="{A6FD51F2-63D2-4644-BC4C-56B82D627A34}" name="SwingRad"/>
-    <tableColumn id="3" xr3:uid="{9CB59F99-7CCF-46C6-AD2C-176CE7B226AF}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{E7855F19-148C-4A66-ABDF-7F31B6051AD3}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{460851AE-15AD-40E2-B6F4-DECCE6D1F211}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{1B2EFE06-C0E5-4770-A0CA-67DA6FABB5C8}" name="ChargeTime3"/>
-    <tableColumn id="11" xr3:uid="{2BE2DC5A-D513-49BE-B9E3-29EC7AAE0AEC}" name="ChargeAtkPierce"/>
-    <tableColumn id="16" xr3:uid="{F8D225F6-970B-47AC-B728-9E72FCF5B7E9}" name="ChargeShootSpd1"/>
-    <tableColumn id="17" xr3:uid="{40C873BA-DCE6-4A4E-836F-02A9DC3F4F31}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{67AF3783-31ED-49ED-B72C-ACDF359DFF6A}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{FEC8B050-6FB7-4185-AAB8-F45017204E37}" name="ChargeShootSpd4"/>
-    <tableColumn id="22" xr3:uid="{910E43C7-407D-4356-9DC8-324DC72D6B38}" name="ChargeBounceCount1"/>
-    <tableColumn id="23" xr3:uid="{9703A44D-4EDF-4724-A627-116DB1765179}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{669CDEDE-1C64-49F7-9213-07479D863268}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{A312B24F-C645-41C0-B581-F37E336617B8}" name="ChargeBounceCount4"/>
-    <tableColumn id="41" xr3:uid="{A0D9E89B-B1AE-4E96-ACF5-E46162B6A28F}" name="ReflectCorrection"/>
-    <tableColumn id="12" xr3:uid="{FC518C04-15F0-4AD6-9FAB-0B349805C4D4}" name="ChargeRigidDmg1"/>
-    <tableColumn id="13" xr3:uid="{3AAD5304-FE75-4A84-B277-9F03B2E243C4}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{E062A665-A236-4B26-B040-F5CAF6B334C4}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{B5E138F3-0FC3-4112-93E8-75249CE4FBF5}" name="ChargeRigidDmg4"/>
-    <tableColumn id="26" xr3:uid="{A4C007B5-D490-4BEB-979B-6EA2DC1D442A}" name="ChargeProjectileDmg1"/>
-    <tableColumn id="27" xr3:uid="{08416E55-8150-4426-8533-2CD9208C3342}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{90DCE779-D5E6-489B-B3BD-0BD66D29DC16}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{C8E5C01E-87E5-4B34-986D-2EC48D6AFA45}" name="ChargeProjectileDmg4"/>
-    <tableColumn id="19" xr3:uid="{B457344C-13BD-41DA-B557-C687A7F3387B}" name="AtkDmgPer"/>
-    <tableColumn id="5" xr3:uid="{A5C519C0-CF4C-4FC9-87D3-721B2E134E0E}" name="#던지기 DPS">
+    <tableColumn id="1" xr3:uid="{53A77216-8766-432D-B24C-19645603DF44}" name="Index"/>
+    <tableColumn id="20" xr3:uid="{A5747BD5-FF7C-487B-B37F-066B160E2FEB}" name="#설명" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{BAF70062-40AD-4733-946A-6181EC46E543}" name="ThrowCooldown" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{7CA284EB-D439-4367-AD62-590B4D3FFCB1}" name="ThrowAfterDelay" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{B94AF8D9-C7CB-44CE-A456-7CED6CD1145C}" name="ThrowSpd"/>
+    <tableColumn id="31" xr3:uid="{01AA0BEE-186A-4FCC-AD0B-10A6BAFE0A75}" name="ThrowBounceCount"/>
+    <tableColumn id="4" xr3:uid="{C0236F5A-AE76-4684-81B5-3A7C4FC28A29}" name="SwingCooldown" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{EA32968C-7F4E-4C02-870A-9C0DF3438F99}" name="SwingAfterDelay"/>
+    <tableColumn id="2" xr3:uid="{8A1BA344-7416-4EBD-9D64-0E784471CA2E}" name="SwingRad"/>
+    <tableColumn id="3" xr3:uid="{0B01FCDD-7506-4A2A-93B3-6011D5F8922D}" name="SwingCentralAngle"/>
+    <tableColumn id="8" xr3:uid="{2F7A4899-1609-4603-9903-417E341B9CA9}" name="ChargeTime1"/>
+    <tableColumn id="9" xr3:uid="{84661C1F-3CFF-4666-8955-FCAB83601E6D}" name="ChargeTime2"/>
+    <tableColumn id="10" xr3:uid="{E4FD909F-62DF-402F-AF76-65275A569B24}" name="ChargeTime3"/>
+    <tableColumn id="11" xr3:uid="{015A8966-6FA1-4DCC-B2BA-5F35D2B3E6E2}" name="ChargeAtkPierce"/>
+    <tableColumn id="16" xr3:uid="{9CC5D6E7-CB29-48CE-9E56-F3A6CB866B8B}" name="ChargeShootSpd1"/>
+    <tableColumn id="17" xr3:uid="{1FD7B558-8010-4DFC-AB4E-BAA18EB58BE5}" name="ChargeShootSpd2"/>
+    <tableColumn id="18" xr3:uid="{1784EF47-24D2-472A-8511-A15F6642E2C5}" name="ChargeShootSpd3"/>
+    <tableColumn id="21" xr3:uid="{2089B1CD-F3D0-4E14-9A59-7002DF923F72}" name="ChargeShootSpd4"/>
+    <tableColumn id="22" xr3:uid="{91BC7C38-1BB0-45D4-9CC4-29FCCCC0F03B}" name="ChargeBounceCount1"/>
+    <tableColumn id="23" xr3:uid="{C344017C-8553-43B0-BC5E-732C619560E8}" name="ChargeBounceCount2"/>
+    <tableColumn id="24" xr3:uid="{9622281B-63E6-48A7-9FC1-4E78086A07D9}" name="ChargeBounceCount3"/>
+    <tableColumn id="25" xr3:uid="{BE4EBF80-87D1-46EB-A544-340CF5A783DA}" name="ChargeBounceCount4"/>
+    <tableColumn id="41" xr3:uid="{2D63898C-FE22-4FD4-A6A7-16FD63456552}" name="ReflectCorrection"/>
+    <tableColumn id="12" xr3:uid="{6FFF7F8D-8AE9-42FB-B3D7-DE5428A43044}" name="ChargeRigidDmg1"/>
+    <tableColumn id="13" xr3:uid="{97E76294-FC21-4686-8CC0-9CC831E4987D}" name="ChargeRigidDmg2"/>
+    <tableColumn id="14" xr3:uid="{AC7ECE3A-1D7D-426E-8DC8-9A4CF3D1B3D7}" name="ChargeRigidDmg3"/>
+    <tableColumn id="15" xr3:uid="{D56C5E26-630D-4CF0-AE0E-E552AD9477FC}" name="ChargeRigidDmg4"/>
+    <tableColumn id="26" xr3:uid="{B34191B1-3147-4CCB-8418-99E1B000277C}" name="ChargeProjectileDmg1"/>
+    <tableColumn id="27" xr3:uid="{8BC90DB6-9B29-4F61-8FD2-397B87487896}" name="ChargeProjectileDmg2"/>
+    <tableColumn id="28" xr3:uid="{6FDEAEFF-8573-48C8-896E-BEC169C8A3FF}" name="ChargeProjectileDmg3"/>
+    <tableColumn id="29" xr3:uid="{53C789DD-2F8D-4620-8940-A5599B15C4CA}" name="ChargeProjectileDmg4"/>
+    <tableColumn id="19" xr3:uid="{1557C1F9-448B-4765-8113-46F0947C1384}" name="AtkDmgPer"/>
+    <tableColumn id="5" xr3:uid="{112B35C7-78E2-4CDA-B459-865F2592EDDE}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{97E6D51F-6542-4301-AF2C-9172A5BF14FC}" name="#휘두르기 직접 공격 DPS">
+    <tableColumn id="32" xr3:uid="{00FB707D-82A2-444F-9B55-E5D7A3AAFA91}" name="#휘두르기 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{AC44526B-A4E1-4CA1-B08E-9DDC0651B7E9}" name="#차징1 직접 공격 DPS">
+    <tableColumn id="34" xr3:uid="{D09F96DA-6D26-464A-A6F3-999F880D89C4}" name="#차징1 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{BD421461-65E6-48B9-BEB0-14075DB4A384}" name="#차징2 직접 공격 DPS">
+    <tableColumn id="35" xr3:uid="{8FCF4296-49D7-4D03-A366-FA78D127E869}" name="#차징2 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{21A51F1D-C768-42EE-B220-6C0E4681F64A}" name="#차징3 직접 공격 DPS">
+    <tableColumn id="36" xr3:uid="{BE0C1873-FA38-4DC5-886D-28E0F9F5452B}" name="#차징3 직접 공격 DPS">
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{46DE00AD-1C4B-4A88-8B31-9036F77BDCD5}" name="#던진공 튕겨내기 DPS">
+    <tableColumn id="37" xr3:uid="{EABA10A3-BC41-4A47-BB3E-53164DEBD546}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{E37A3DA8-84CB-454E-9F94-48CF73DD2162}" name="#던진공 차징1 튕겨내기 DPS">
+    <tableColumn id="38" xr3:uid="{A6D40845-0E9F-4207-BD6B-8763C486953E}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{E7F09E20-5EBF-4236-86A2-883C637E11CD}" name="#던진공 차징2 튕겨내기 DPS3">
+    <tableColumn id="39" xr3:uid="{90D4EC35-454E-445E-A232-5F468017E52F}" name="#던진공 차징2 튕겨내기 DPS3">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{7418FE77-5D26-4E89-B097-17EB6BDCE90B}" name="#던진공 차징3 튕겨내기 DPS4">
+    <tableColumn id="40" xr3:uid="{6D88E019-9AA6-402A-B936-F6D938A44BEC}" name="#던진공 차징3 튕겨내기 DPS4">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
@@ -916,14 +916,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BE48E4-C6E2-4C31-84F8-8091FD5DE91E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3CC9BE-2AE1-4EEA-B750-B68E8E26E14D}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1194,31 +1194,31 @@
         <v>1.2</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I3">
         <v>0.5</v>
       </c>
       <c r="J3">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K3">
         <v>120</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
+        <v>0.2</v>
+      </c>
+      <c r="N3">
         <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1.5</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -1236,40 +1236,40 @@
         <v>40</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>30</v>
       </c>
       <c r="AC3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>30</v>
@@ -1280,47 +1280,47 @@
       <c r="AH3">
         <f>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</f>
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AI3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AJ3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</f>
-        <v>13.333333333333334</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</f>
-        <v>73</v>
+        <v>28.466666666666669</v>
       </c>
       <c r="AN3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</f>
-        <v>45.454545454545453</v>
+        <v>8.9285714285714288</v>
       </c>
       <c r="AO3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</f>
-        <v>49.999999999999993</v>
+        <v>8.6206896551724146</v>
       </c>
       <c r="AP3">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</f>
-        <v>60.15625</v>
+        <v>29.72972972972973</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/CharacterAtkGameData.xlsx
+++ b/_GameData/CharacterAtkGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DDECC17-8F76-4B5B-81C5-9E816ADD8025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E81208-C57F-9143-90D8-A5A514C91607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBBD79E6-19B9-4945-9EBD-065199D90117}"/>
+    <workbookView xWindow="-31500" yWindow="2460" windowWidth="29040" windowHeight="15840" xr2:uid="{BBBD79E6-19B9-4945-9EBD-065199D90117}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterAtkGameData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,18 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChargeTime1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeTime2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeTime3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChargeAtkPierce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,14 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChargeShootSpd3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeShootSpd4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChargeBounceCount1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,14 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChargeBounceCount3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeBounceCount4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReflectCorrection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,14 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChargeRigidDmg3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeRigidDmg4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChargeProjectileDmg1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,14 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChargeProjectileDmg3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeProjectileDmg4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AtkDmgPer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +178,10 @@
   </si>
   <si>
     <t>휘두르기/던지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,6 +480,7 @@
       <sheetName val="ItemEffectGameData"/>
       <sheetName val="ItemResourceGameData"/>
       <sheetName val="LocaleGameData"/>
+      <sheetName val="_QT_Develop_Table"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -538,15 +499,16 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E427380-2E33-47A7-9CF8-020AE00DBC14}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AP3" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B2:AP3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E427380-2E33-47A7-9CF8-020AE00DBC14}" name="CharacterAtkTable" displayName="CharacterAtkTable" ref="B2:AF3" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B2:AF3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{53A77216-8766-432D-B24C-19645603DF44}" name="Index"/>
     <tableColumn id="20" xr3:uid="{A5747BD5-FF7C-487B-B37F-066B160E2FEB}" name="#설명" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{BAF70062-40AD-4733-946A-6181EC46E543}" name="ThrowCooldown" dataDxfId="2"/>
@@ -557,27 +519,17 @@
     <tableColumn id="6" xr3:uid="{EA32968C-7F4E-4C02-870A-9C0DF3438F99}" name="SwingAfterDelay"/>
     <tableColumn id="2" xr3:uid="{8A1BA344-7416-4EBD-9D64-0E784471CA2E}" name="SwingRad"/>
     <tableColumn id="3" xr3:uid="{0B01FCDD-7506-4A2A-93B3-6011D5F8922D}" name="SwingCentralAngle"/>
-    <tableColumn id="8" xr3:uid="{2F7A4899-1609-4603-9903-417E341B9CA9}" name="ChargeTime1"/>
-    <tableColumn id="9" xr3:uid="{84661C1F-3CFF-4666-8955-FCAB83601E6D}" name="ChargeTime2"/>
-    <tableColumn id="10" xr3:uid="{E4FD909F-62DF-402F-AF76-65275A569B24}" name="ChargeTime3"/>
+    <tableColumn id="8" xr3:uid="{2F7A4899-1609-4603-9903-417E341B9CA9}" name="ChargeTime"/>
     <tableColumn id="11" xr3:uid="{015A8966-6FA1-4DCC-B2BA-5F35D2B3E6E2}" name="ChargeAtkPierce"/>
     <tableColumn id="16" xr3:uid="{9CC5D6E7-CB29-48CE-9E56-F3A6CB866B8B}" name="ChargeShootSpd1"/>
     <tableColumn id="17" xr3:uid="{1FD7B558-8010-4DFC-AB4E-BAA18EB58BE5}" name="ChargeShootSpd2"/>
-    <tableColumn id="18" xr3:uid="{1784EF47-24D2-472A-8511-A15F6642E2C5}" name="ChargeShootSpd3"/>
-    <tableColumn id="21" xr3:uid="{2089B1CD-F3D0-4E14-9A59-7002DF923F72}" name="ChargeShootSpd4"/>
     <tableColumn id="22" xr3:uid="{91BC7C38-1BB0-45D4-9CC4-29FCCCC0F03B}" name="ChargeBounceCount1"/>
     <tableColumn id="23" xr3:uid="{C344017C-8553-43B0-BC5E-732C619560E8}" name="ChargeBounceCount2"/>
-    <tableColumn id="24" xr3:uid="{9622281B-63E6-48A7-9FC1-4E78086A07D9}" name="ChargeBounceCount3"/>
-    <tableColumn id="25" xr3:uid="{BE4EBF80-87D1-46EB-A544-340CF5A783DA}" name="ChargeBounceCount4"/>
     <tableColumn id="41" xr3:uid="{2D63898C-FE22-4FD4-A6A7-16FD63456552}" name="ReflectCorrection"/>
     <tableColumn id="12" xr3:uid="{6FFF7F8D-8AE9-42FB-B3D7-DE5428A43044}" name="ChargeRigidDmg1"/>
     <tableColumn id="13" xr3:uid="{97E76294-FC21-4686-8CC0-9CC831E4987D}" name="ChargeRigidDmg2"/>
-    <tableColumn id="14" xr3:uid="{AC7ECE3A-1D7D-426E-8DC8-9A4CF3D1B3D7}" name="ChargeRigidDmg3"/>
-    <tableColumn id="15" xr3:uid="{D56C5E26-630D-4CF0-AE0E-E552AD9477FC}" name="ChargeRigidDmg4"/>
     <tableColumn id="26" xr3:uid="{B34191B1-3147-4CCB-8418-99E1B000277C}" name="ChargeProjectileDmg1"/>
     <tableColumn id="27" xr3:uid="{8BC90DB6-9B29-4F61-8FD2-397B87487896}" name="ChargeProjectileDmg2"/>
-    <tableColumn id="28" xr3:uid="{6FDEAEFF-8573-48C8-896E-BEC169C8A3FF}" name="ChargeProjectileDmg3"/>
-    <tableColumn id="29" xr3:uid="{53C789DD-2F8D-4620-8940-A5599B15C4CA}" name="ChargeProjectileDmg4"/>
     <tableColumn id="19" xr3:uid="{1557C1F9-448B-4765-8113-46F0947C1384}" name="AtkDmgPer"/>
     <tableColumn id="5" xr3:uid="{112B35C7-78E2-4CDA-B459-865F2592EDDE}" name="#던지기 DPS">
       <calculatedColumnFormula>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
@@ -587,13 +539,13 @@
       <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="34" xr3:uid="{D09F96DA-6D26-464A-A6F3-999F880D89C4}" name="#차징1 직접 공격 DPS">
-      <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</calculatedColumnFormula>
+      <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="35" xr3:uid="{8FCF4296-49D7-4D03-A366-FA78D127E869}" name="#차징2 직접 공격 DPS">
-      <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</calculatedColumnFormula>
+      <calculatedColumnFormula>#REF!/(CharacterAtkTable[[#This Row],[SwingCooldown]]+#REF!)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="36" xr3:uid="{BE0C1873-FA38-4DC5-886D-28E0F9F5452B}" name="#차징3 직접 공격 DPS">
-      <calculatedColumnFormula>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</calculatedColumnFormula>
+      <calculatedColumnFormula>#REF!/(CharacterAtkTable[[#This Row],[SwingCooldown]]+#REF!)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="37" xr3:uid="{EABA10A3-BC41-4A47-BB3E-53164DEBD546}" name="#던진공 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
@@ -602,18 +554,18 @@
     </tableColumn>
     <tableColumn id="38" xr3:uid="{A6D40845-0E9F-4207-BD6B-8763C486953E}" name="#던진공 차징1 튕겨내기 DPS">
       <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
-/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="39" xr3:uid="{90D4EC35-454E-445E-A232-5F468017E52F}" name="#던진공 차징2 튕겨내기 DPS3">
-      <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
-/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
-* (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+#REF! )
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + #REF! + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
+* (1 + (#REF!/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="40" xr3:uid="{6D88E019-9AA6-402A-B936-F6D938A44BEC}" name="#던진공 차징3 튕겨내기 DPS4">
-      <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
-/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
-* (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</calculatedColumnFormula>
+      <calculatedColumnFormula>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+#REF! )
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + #REF! + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
+* (1 + (#REF!/2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -920,41 +872,41 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:AP3"/>
+  <dimension ref="B1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.125" customWidth="1"/>
-    <col min="25" max="28" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17" customWidth="1"/>
-    <col min="35" max="35" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.1640625" customWidth="1"/>
+    <col min="19" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" customWidth="1"/>
+    <col min="25" max="25" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42">
+    <row r="1" spans="2:32">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -989,10 +941,10 @@
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O1" t="s">
         <v>0</v>
@@ -1021,41 +973,11 @@
       <c r="W1" t="s">
         <v>0</v>
       </c>
-      <c r="X1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:42">
+    <row r="2" spans="2:32">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1087,105 +1009,75 @@
         <v>13</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="3" spans="2:42">
+    <row r="3" spans="2:32">
       <c r="B3">
         <v>200</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1212,115 +1104,85 @@
         <v>120</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M3">
-        <v>0.2</v>
+        <v>8</v>
       </c>
       <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="O3">
-        <v>8</v>
-      </c>
-      <c r="P3">
-        <v>20</v>
-      </c>
       <c r="Q3">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15</v>
+      </c>
+      <c r="T3">
         <v>30</v>
       </c>
-      <c r="S3">
-        <v>40</v>
-      </c>
-      <c r="T3">
+      <c r="U3">
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <v>30</v>
+      </c>
+      <c r="W3">
         <v>1</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>15</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>30</v>
-      </c>
-      <c r="AC3">
-        <v>15</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>30</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
+      <c r="X3" t="e">
         <f>INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0)) /
 ( CharacterAtkTable[[#This Row],[ThrowCooldown]] * (1 + (CharacterAtkTable[[#This Row],[ThrowBounceCount]]/2)) )</f>
-        <v>12.5</v>
-      </c>
-      <c r="AI3">
+        <v>#REF!</v>
+      </c>
+      <c r="Y3">
         <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg1]]/CharacterAtkTable[[#This Row],[SwingCooldown]]</f>
         <v>10</v>
       </c>
-      <c r="AJ3">
-        <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime1]])</f>
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg3]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime2]])</f>
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg4]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime3]])</f>
-        <v>12</v>
-      </c>
-      <c r="AM3">
+      <c r="Z3">
+        <f>CharacterAtkTable[[#This Row],[ChargeRigidDmg2]]/(CharacterAtkTable[[#This Row],[SwingCooldown]]+CharacterAtkTable[[#This Row],[ChargeTime]])</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AA3" t="e">
+        <f>#REF!/(CharacterAtkTable[[#This Row],[SwingCooldown]]+#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB3" t="e">
+        <f>#REF!/(CharacterAtkTable[[#This Row],[SwingCooldown]]+#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AC3" t="e">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg1]] )
 / ( CharacterAtkTable[[#This Row],[SwingCooldown]] ) + CharacterAtkTable[[#This Row],[ThrowAfterDelay]]
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount1]]/2))</f>
-        <v>28.466666666666669</v>
-      </c>
-      <c r="AN3">
+        <v>#REF!</v>
+      </c>
+      <c r="AD3" t="e">
         <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg2]] )
-/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime1]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
 * (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount2]]/2))</f>
-        <v>8.9285714285714288</v>
-      </c>
-      <c r="AO3">
-        <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg3]] )
-/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime2]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
-* (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount3]]/2))</f>
-        <v>8.6206896551724146</v>
-      </c>
-      <c r="AP3">
-        <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+CharacterAtkTable[[#This Row],[ChargeProjectileDmg4]] )
-/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + CharacterAtkTable[[#This Row],[ChargeTime3]] + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
-* (1 + (CharacterAtkTable[[#This Row],[ChargeBounceCount4]]/2))</f>
-        <v>29.72972972972973</v>
+        <v>#REF!</v>
+      </c>
+      <c r="AE3" t="e">
+        <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+#REF! )
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + #REF! + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
+* (1 + (#REF!/2))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF3" t="e">
+        <f>( INDEX([1]!ProjectileTable[DirectDmg],MATCH([1]!CharacterTable[[#This Row],[DefaultBallDataId]],[1]!ProjectileTable[Index],0))+#REF! )
+/ ( CharacterAtkTable[[#This Row],[SwingCooldown]] + #REF! + CharacterAtkTable[[#This Row],[ThrowAfterDelay]])
+* (1 + (#REF!/2))</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
